--- a/DataGenerator/XLSXS/StringData/StringCodeData.xlsx
+++ b/DataGenerator/XLSXS/StringData/StringCodeData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\StringData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\StringData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B0CE0-DD4A-490F-9AFF-425D0A643C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4C161E-264C-414C-9815-E60C9A28C427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1020" windowWidth="21600" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="8535" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>DESC_SKILL_K</t>
-  </si>
-  <si>
-    <t>가장 멀리있는 적에게 나비를 보냈다가 돌려보냅니다. 나비에 적중한 적은 주문력의 120%의 피해를 입고. 6초간 '통보' 디버프를 가합니다. 통보를 가진 적은 마법저항력이 50% 감소합니다.</t>
   </si>
   <si>
     <t>DESC_SKILL_J</t>
@@ -453,12 +450,433 @@
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멀리있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나비를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냈다가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돌려보냅니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나비에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적중한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문력의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 120%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피해를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입고,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디버프를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법저항력이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감소합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +902,20 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -533,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -555,6 +987,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,7 +1274,7 @@
   <dimension ref="A1:AB1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -934,10 +1369,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1379,15 +1814,15 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="66" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>1010101</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
+      <c r="C15" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -1422,7 +1857,7 @@
         <v>1010102</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
@@ -1458,7 +1893,7 @@
         <v>1010103</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
@@ -1494,10 +1929,10 @@
         <v>1010104</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -1532,10 +1967,10 @@
         <v>1010105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
@@ -1570,10 +2005,10 @@
         <v>1010106</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -1608,10 +2043,10 @@
         <v>1010107</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5">
         <v>4</v>
@@ -1646,10 +2081,10 @@
         <v>1010108</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
@@ -1684,10 +2119,10 @@
         <v>1008000</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -1722,10 +2157,10 @@
         <v>1008001</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
@@ -1760,10 +2195,10 @@
         <v>1008002</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -1798,10 +2233,10 @@
         <v>1008003</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5">
         <v>4</v>
@@ -1836,10 +2271,10 @@
         <v>1008004</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5">
         <v>5</v>
@@ -1874,10 +2309,10 @@
         <v>1008005</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -1912,10 +2347,10 @@
         <v>1018005</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
@@ -1950,16 +2385,16 @@
         <v>1008100</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -1990,16 +2425,16 @@
         <v>1008101</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2030,16 +2465,16 @@
         <v>1008102</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2070,16 +2505,16 @@
         <v>1008103</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -2110,16 +2545,16 @@
         <v>1008104</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2150,16 +2585,16 @@
         <v>1013000</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="5">
         <v>2</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2190,16 +2625,16 @@
         <v>1013001</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="5">
         <v>3</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2230,16 +2665,16 @@
         <v>1013002</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="5">
         <v>4</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2270,16 +2705,16 @@
         <v>1013003</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2310,16 +2745,16 @@
         <v>1013004</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5">
         <v>6</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2350,16 +2785,16 @@
         <v>1013005</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="5">
         <v>7</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -2390,16 +2825,16 @@
         <v>1013006</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="5">
         <v>8</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -2430,16 +2865,16 @@
         <v>1013007</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="5">
         <v>9</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2470,16 +2905,16 @@
         <v>1013008</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2510,16 +2945,16 @@
         <v>1013009</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="5">
         <v>11</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2550,16 +2985,16 @@
         <v>1013010</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="5">
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2590,16 +3025,16 @@
         <v>1013011</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="5">
         <v>13</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2630,16 +3065,16 @@
         <v>1013012</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="5">
         <v>14</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2670,16 +3105,16 @@
         <v>1013013</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="5">
         <v>15</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2710,16 +3145,16 @@
         <v>1013014</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" s="5">
         <v>16</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2750,16 +3185,16 @@
         <v>1013015</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="5">
         <v>17</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -2790,16 +3225,16 @@
         <v>1013016</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="5">
         <v>18</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -2830,10 +3265,10 @@
         <v>1009000</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2866,10 +3301,10 @@
         <v>1009001</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2902,10 +3337,10 @@
         <v>1009002</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2938,10 +3373,10 @@
         <v>1009003</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2974,10 +3409,10 @@
         <v>1009004</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -3010,10 +3445,10 @@
         <v>1009005</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3046,10 +3481,10 @@
         <v>1009006</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3082,10 +3517,10 @@
         <v>1009007</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3118,10 +3553,10 @@
         <v>1009008</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3154,10 +3589,10 @@
         <v>1009009</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3190,10 +3625,10 @@
         <v>1009100</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3226,10 +3661,10 @@
         <v>1009101</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3262,10 +3697,10 @@
         <v>1009102</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3298,10 +3733,10 @@
         <v>1009103</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3334,10 +3769,10 @@
         <v>1009104</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3370,10 +3805,10 @@
         <v>1009105</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3406,10 +3841,10 @@
         <v>1009106</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -3442,10 +3877,10 @@
         <v>1009107</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3478,10 +3913,10 @@
         <v>1009108</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3514,10 +3949,10 @@
         <v>1009109</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>

--- a/DataGenerator/XLSXS/StringData/StringCodeData.xlsx
+++ b/DataGenerator/XLSXS/StringData/StringCodeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\StringData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DG_Project\DataGenerator\XLSXS\StringData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4C161E-264C-414C-9815-E60C9A28C427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CD239-30C8-4FB9-A729-D7DE42B5D649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="8535" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -871,6 +871,10 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1274,17 +1278,17 @@
   <dimension ref="A1:AB1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1328,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1368,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1408,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="5">
         <v>1000000</v>
       </c>
@@ -1442,7 +1446,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" s="5">
         <v>1000001</v>
       </c>
@@ -1480,7 +1484,7 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="5">
         <v>1000002</v>
       </c>
@@ -1518,7 +1522,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="5">
         <v>1000003</v>
       </c>
@@ -1556,7 +1560,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
         <v>1000004</v>
       </c>
@@ -1594,7 +1598,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
         <v>1000005</v>
       </c>
@@ -1632,7 +1636,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
         <v>1000100</v>
       </c>
@@ -1670,7 +1674,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
         <v>1000101</v>
       </c>
@@ -1708,15 +1712,19 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="5">
         <v>1000102</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1742,15 +1750,19 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="5">
         <v>1000103</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1776,7 +1788,7 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="5">
         <v>1010100</v>
       </c>
@@ -1814,7 +1826,7 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="95.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="5">
         <v>1010101</v>
       </c>
@@ -1852,14 +1864,16 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="5">
         <v>1010102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" s="5">
         <v>0</v>
       </c>
@@ -1888,14 +1902,16 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="5">
         <v>1010103</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" s="5">
         <v>0</v>
       </c>
@@ -1924,7 +1940,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="5">
         <v>1010104</v>
       </c>
@@ -1962,7 +1978,7 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
     </row>
-    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="5">
         <v>1010105</v>
       </c>
@@ -2000,7 +2016,7 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
     </row>
-    <row r="20" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="5">
         <v>1010106</v>
       </c>
@@ -2038,7 +2054,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="5">
         <v>1010107</v>
       </c>
@@ -2076,7 +2092,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="5">
         <v>1010108</v>
       </c>
@@ -2114,7 +2130,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="5">
         <v>1008000</v>
       </c>
@@ -2152,7 +2168,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="5">
         <v>1008001</v>
       </c>
@@ -2190,7 +2206,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="5">
         <v>1008002</v>
       </c>
@@ -2228,7 +2244,7 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="5">
         <v>1008003</v>
       </c>
@@ -2266,7 +2282,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="5">
         <v>1008004</v>
       </c>
@@ -2304,7 +2320,7 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
     </row>
-    <row r="28" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="5">
         <v>1008005</v>
       </c>
@@ -2342,7 +2358,7 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
     </row>
-    <row r="29" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="5">
         <v>1018005</v>
       </c>
@@ -2380,7 +2396,7 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="5">
         <v>1008100</v>
       </c>
@@ -2420,7 +2436,7 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="5">
         <v>1008101</v>
       </c>
@@ -2460,7 +2476,7 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="5">
         <v>1008102</v>
       </c>
@@ -2500,7 +2516,7 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
     </row>
-    <row r="33" spans="1:28" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="5">
         <v>1008103</v>
       </c>
@@ -2540,7 +2556,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="5">
         <v>1008104</v>
       </c>
@@ -2580,7 +2596,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="5">
         <v>1013000</v>
       </c>
@@ -2620,7 +2636,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="5">
         <v>1013001</v>
       </c>
@@ -2660,7 +2676,7 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
     </row>
-    <row r="37" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="5">
         <v>1013002</v>
       </c>
@@ -2700,7 +2716,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="5">
         <v>1013003</v>
       </c>
@@ -2740,7 +2756,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="5">
         <v>1013004</v>
       </c>
@@ -2780,7 +2796,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="5">
         <v>1013005</v>
       </c>
@@ -2820,7 +2836,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="5">
         <v>1013006</v>
       </c>
@@ -2860,7 +2876,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="5">
         <v>1013007</v>
       </c>
@@ -2900,7 +2916,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row r="43" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="5">
         <v>1013008</v>
       </c>
@@ -2940,7 +2956,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="5">
         <v>1013009</v>
       </c>
@@ -2980,7 +2996,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="5">
         <v>1013010</v>
       </c>
@@ -3020,7 +3036,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="5">
         <v>1013011</v>
       </c>
@@ -3060,7 +3076,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A47" s="5">
         <v>1013012</v>
       </c>
@@ -3100,7 +3116,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row r="48" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="5">
         <v>1013013</v>
       </c>
@@ -3140,7 +3156,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A49" s="5">
         <v>1013014</v>
       </c>
@@ -3180,7 +3196,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="27.4" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A50" s="5">
         <v>1013015</v>
       </c>
@@ -3220,7 +3236,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A51" s="5">
         <v>1013016</v>
       </c>
@@ -3260,7 +3276,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A52" s="5">
         <v>1009000</v>
       </c>
@@ -3270,7 +3286,9 @@
       <c r="C52" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -3296,7 +3314,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A53" s="5">
         <v>1009001</v>
       </c>
@@ -3306,7 +3324,9 @@
       <c r="C53" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -3332,7 +3352,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A54" s="5">
         <v>1009002</v>
       </c>
@@ -3342,7 +3362,9 @@
       <c r="C54" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -3368,7 +3390,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A55" s="5">
         <v>1009003</v>
       </c>
@@ -3378,7 +3400,9 @@
       <c r="C55" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -3404,7 +3428,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A56" s="5">
         <v>1009004</v>
       </c>
@@ -3414,7 +3438,9 @@
       <c r="C56" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -3440,7 +3466,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A57" s="5">
         <v>1009005</v>
       </c>
@@ -3450,7 +3476,9 @@
       <c r="C57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -3476,7 +3504,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A58" s="5">
         <v>1009006</v>
       </c>
@@ -3486,7 +3514,9 @@
       <c r="C58" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -3512,7 +3542,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A59" s="5">
         <v>1009007</v>
       </c>
@@ -3522,7 +3552,9 @@
       <c r="C59" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -3548,7 +3580,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A60" s="5">
         <v>1009008</v>
       </c>
@@ -3558,7 +3590,9 @@
       <c r="C60" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -3584,7 +3618,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A61" s="5">
         <v>1009009</v>
       </c>
@@ -3594,7 +3628,9 @@
       <c r="C61" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -3620,7 +3656,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A62" s="5">
         <v>1009100</v>
       </c>
@@ -3630,7 +3666,9 @@
       <c r="C62" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -3656,7 +3694,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A63" s="5">
         <v>1009101</v>
       </c>
@@ -3666,7 +3704,9 @@
       <c r="C63" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -3692,7 +3732,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A64" s="5">
         <v>1009102</v>
       </c>
@@ -3702,7 +3742,9 @@
       <c r="C64" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -3728,7 +3770,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A65" s="5">
         <v>1009103</v>
       </c>
@@ -3738,7 +3780,9 @@
       <c r="C65" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -3764,7 +3808,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A66" s="5">
         <v>1009104</v>
       </c>
@@ -3774,7 +3818,9 @@
       <c r="C66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -3800,7 +3846,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A67" s="5">
         <v>1009105</v>
       </c>
@@ -3810,7 +3856,9 @@
       <c r="C67" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -3836,7 +3884,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A68" s="5">
         <v>1009106</v>
       </c>
@@ -3846,7 +3894,9 @@
       <c r="C68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -3872,7 +3922,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A69" s="5">
         <v>1009107</v>
       </c>
@@ -3882,7 +3932,9 @@
       <c r="C69" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -3908,7 +3960,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A70" s="5">
         <v>1009108</v>
       </c>
@@ -3918,7 +3970,9 @@
       <c r="C70" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -3944,7 +3998,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A71" s="5">
         <v>1009109</v>
       </c>
@@ -3954,7 +4008,9 @@
       <c r="C71" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -3980,7 +4036,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -4010,7 +4066,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -4040,7 +4096,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4070,7 +4126,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4100,7 +4156,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4130,7 +4186,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4160,7 +4216,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -4190,7 +4246,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4220,7 +4276,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4250,7 +4306,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -4280,7 +4336,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4310,7 +4366,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4340,7 +4396,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4370,7 +4426,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4400,7 +4456,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4430,7 +4486,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4460,7 +4516,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4490,7 +4546,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4520,7 +4576,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4550,7 +4606,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4580,7 +4636,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4610,7 +4666,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4640,7 +4696,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4670,7 +4726,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4700,7 +4756,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4730,7 +4786,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4760,7 +4816,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4790,7 +4846,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4820,7 +4876,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4850,7 +4906,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4880,7 +4936,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4910,7 +4966,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4940,7 +4996,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4970,7 +5026,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5000,7 +5056,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5030,7 +5086,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5060,7 +5116,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5090,7 +5146,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5120,7 +5176,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5150,7 +5206,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5180,7 +5236,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5210,7 +5266,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5240,7 +5296,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5270,7 +5326,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5300,7 +5356,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5330,7 +5386,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5360,7 +5416,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5390,7 +5446,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5420,7 +5476,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5450,7 +5506,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5480,7 +5536,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5510,7 +5566,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5540,7 +5596,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5570,7 +5626,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5600,7 +5656,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5630,7 +5686,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5660,7 +5716,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5690,7 +5746,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5720,7 +5776,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5750,7 +5806,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5780,7 +5836,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5810,7 +5866,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5840,7 +5896,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5870,7 +5926,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5900,7 +5956,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5930,7 +5986,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -5960,7 +6016,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -5990,7 +6046,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6020,7 +6076,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6050,7 +6106,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6080,7 +6136,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6110,7 +6166,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6140,7 +6196,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6170,7 +6226,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6200,7 +6256,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6230,7 +6286,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6260,7 +6316,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6290,7 +6346,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6320,7 +6376,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6350,7 +6406,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6380,7 +6436,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6410,7 +6466,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6440,7 +6496,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6470,7 +6526,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6500,7 +6556,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6530,7 +6586,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6560,7 +6616,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6590,7 +6646,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6620,7 +6676,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6650,7 +6706,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6680,7 +6736,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6710,7 +6766,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6740,7 +6796,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -6770,7 +6826,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -6800,7 +6856,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -6830,7 +6886,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -6860,7 +6916,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -6890,7 +6946,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -6920,7 +6976,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -6950,7 +7006,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -6980,7 +7036,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7010,7 +7066,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7040,7 +7096,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7070,7 +7126,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7100,7 +7156,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7130,7 +7186,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7160,7 +7216,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7190,7 +7246,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7220,7 +7276,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7250,7 +7306,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7280,7 +7336,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7310,7 +7366,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7340,7 +7396,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7370,7 +7426,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7400,7 +7456,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7430,7 +7486,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7460,7 +7516,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7490,7 +7546,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7520,7 +7576,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7550,7 +7606,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7580,7 +7636,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7610,7 +7666,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -7640,7 +7696,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7670,7 +7726,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -7700,7 +7756,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -7730,7 +7786,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -7760,7 +7816,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -7790,7 +7846,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -7820,7 +7876,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -7850,7 +7906,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -7880,7 +7936,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -7910,7 +7966,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -7940,7 +7996,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -7970,7 +8026,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8000,7 +8056,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8030,7 +8086,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8060,7 +8116,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8090,7 +8146,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8120,7 +8176,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8150,7 +8206,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8180,7 +8236,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8210,7 +8266,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8240,7 +8296,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8270,7 +8326,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8300,7 +8356,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8330,7 +8386,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8360,7 +8416,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8390,7 +8446,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8420,7 +8476,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8450,7 +8506,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8480,7 +8536,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8510,7 +8566,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8540,7 +8596,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8570,7 +8626,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -8600,7 +8656,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8630,7 +8686,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -8660,7 +8716,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -8690,7 +8746,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -8720,7 +8776,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -8750,7 +8806,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -8780,7 +8836,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -8810,7 +8866,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -8840,7 +8896,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -8870,7 +8926,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -8900,7 +8956,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -8930,7 +8986,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -8960,7 +9016,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -8990,7 +9046,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9020,7 +9076,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9050,7 +9106,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9080,7 +9136,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9110,7 +9166,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9140,7 +9196,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9170,7 +9226,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9200,7 +9256,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9230,7 +9286,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9260,7 +9316,7 @@
       <c r="AA247" s="5"/>
       <c r="AB247" s="5"/>
     </row>
-    <row r="248" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -9290,7 +9346,7 @@
       <c r="AA248" s="5"/>
       <c r="AB248" s="5"/>
     </row>
-    <row r="249" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -9320,7 +9376,7 @@
       <c r="AA249" s="5"/>
       <c r="AB249" s="5"/>
     </row>
-    <row r="250" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -9350,7 +9406,7 @@
       <c r="AA250" s="5"/>
       <c r="AB250" s="5"/>
     </row>
-    <row r="251" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -9380,7 +9436,7 @@
       <c r="AA251" s="5"/>
       <c r="AB251" s="5"/>
     </row>
-    <row r="252" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -9410,7 +9466,7 @@
       <c r="AA252" s="5"/>
       <c r="AB252" s="5"/>
     </row>
-    <row r="253" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -9440,7 +9496,7 @@
       <c r="AA253" s="5"/>
       <c r="AB253" s="5"/>
     </row>
-    <row r="254" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -9470,7 +9526,7 @@
       <c r="AA254" s="5"/>
       <c r="AB254" s="5"/>
     </row>
-    <row r="255" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -9500,7 +9556,7 @@
       <c r="AA255" s="5"/>
       <c r="AB255" s="5"/>
     </row>
-    <row r="256" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -9530,7 +9586,7 @@
       <c r="AA256" s="5"/>
       <c r="AB256" s="5"/>
     </row>
-    <row r="257" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -9560,7 +9616,7 @@
       <c r="AA257" s="5"/>
       <c r="AB257" s="5"/>
     </row>
-    <row r="258" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -9590,7 +9646,7 @@
       <c r="AA258" s="5"/>
       <c r="AB258" s="5"/>
     </row>
-    <row r="259" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -9620,7 +9676,7 @@
       <c r="AA259" s="5"/>
       <c r="AB259" s="5"/>
     </row>
-    <row r="260" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -9650,7 +9706,7 @@
       <c r="AA260" s="5"/>
       <c r="AB260" s="5"/>
     </row>
-    <row r="261" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -9680,7 +9736,7 @@
       <c r="AA261" s="5"/>
       <c r="AB261" s="5"/>
     </row>
-    <row r="262" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -9710,7 +9766,7 @@
       <c r="AA262" s="5"/>
       <c r="AB262" s="5"/>
     </row>
-    <row r="263" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -9740,7 +9796,7 @@
       <c r="AA263" s="5"/>
       <c r="AB263" s="5"/>
     </row>
-    <row r="264" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -9770,7 +9826,7 @@
       <c r="AA264" s="5"/>
       <c r="AB264" s="5"/>
     </row>
-    <row r="265" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -9800,7 +9856,7 @@
       <c r="AA265" s="5"/>
       <c r="AB265" s="5"/>
     </row>
-    <row r="266" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -9830,7 +9886,7 @@
       <c r="AA266" s="5"/>
       <c r="AB266" s="5"/>
     </row>
-    <row r="267" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -9860,7 +9916,7 @@
       <c r="AA267" s="5"/>
       <c r="AB267" s="5"/>
     </row>
-    <row r="268" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -9890,7 +9946,7 @@
       <c r="AA268" s="5"/>
       <c r="AB268" s="5"/>
     </row>
-    <row r="269" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -9920,7 +9976,7 @@
       <c r="AA269" s="5"/>
       <c r="AB269" s="5"/>
     </row>
-    <row r="270" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -9950,7 +10006,7 @@
       <c r="AA270" s="5"/>
       <c r="AB270" s="5"/>
     </row>
-    <row r="271" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -9980,7 +10036,7 @@
       <c r="AA271" s="5"/>
       <c r="AB271" s="5"/>
     </row>
-    <row r="272" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -10010,7 +10066,7 @@
       <c r="AA272" s="5"/>
       <c r="AB272" s="5"/>
     </row>
-    <row r="273" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -10040,7 +10096,7 @@
       <c r="AA273" s="5"/>
       <c r="AB273" s="5"/>
     </row>
-    <row r="274" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -10070,7 +10126,7 @@
       <c r="AA274" s="5"/>
       <c r="AB274" s="5"/>
     </row>
-    <row r="275" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -10100,7 +10156,7 @@
       <c r="AA275" s="5"/>
       <c r="AB275" s="5"/>
     </row>
-    <row r="276" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -10130,7 +10186,7 @@
       <c r="AA276" s="5"/>
       <c r="AB276" s="5"/>
     </row>
-    <row r="277" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -10160,7 +10216,7 @@
       <c r="AA277" s="5"/>
       <c r="AB277" s="5"/>
     </row>
-    <row r="278" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -10190,7 +10246,7 @@
       <c r="AA278" s="5"/>
       <c r="AB278" s="5"/>
     </row>
-    <row r="279" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -10220,7 +10276,7 @@
       <c r="AA279" s="5"/>
       <c r="AB279" s="5"/>
     </row>
-    <row r="280" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -10250,7 +10306,7 @@
       <c r="AA280" s="5"/>
       <c r="AB280" s="5"/>
     </row>
-    <row r="281" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -10280,7 +10336,7 @@
       <c r="AA281" s="5"/>
       <c r="AB281" s="5"/>
     </row>
-    <row r="282" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -10310,7 +10366,7 @@
       <c r="AA282" s="5"/>
       <c r="AB282" s="5"/>
     </row>
-    <row r="283" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -10340,7 +10396,7 @@
       <c r="AA283" s="5"/>
       <c r="AB283" s="5"/>
     </row>
-    <row r="284" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -10370,7 +10426,7 @@
       <c r="AA284" s="5"/>
       <c r="AB284" s="5"/>
     </row>
-    <row r="285" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -10400,7 +10456,7 @@
       <c r="AA285" s="5"/>
       <c r="AB285" s="5"/>
     </row>
-    <row r="286" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -10430,7 +10486,7 @@
       <c r="AA286" s="5"/>
       <c r="AB286" s="5"/>
     </row>
-    <row r="287" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -10460,7 +10516,7 @@
       <c r="AA287" s="5"/>
       <c r="AB287" s="5"/>
     </row>
-    <row r="288" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -10490,7 +10546,7 @@
       <c r="AA288" s="5"/>
       <c r="AB288" s="5"/>
     </row>
-    <row r="289" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -10520,7 +10576,7 @@
       <c r="AA289" s="5"/>
       <c r="AB289" s="5"/>
     </row>
-    <row r="290" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -10550,7 +10606,7 @@
       <c r="AA290" s="5"/>
       <c r="AB290" s="5"/>
     </row>
-    <row r="291" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -10580,7 +10636,7 @@
       <c r="AA291" s="5"/>
       <c r="AB291" s="5"/>
     </row>
-    <row r="292" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -10610,7 +10666,7 @@
       <c r="AA292" s="5"/>
       <c r="AB292" s="5"/>
     </row>
-    <row r="293" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -10640,7 +10696,7 @@
       <c r="AA293" s="5"/>
       <c r="AB293" s="5"/>
     </row>
-    <row r="294" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -10670,7 +10726,7 @@
       <c r="AA294" s="5"/>
       <c r="AB294" s="5"/>
     </row>
-    <row r="295" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -10700,7 +10756,7 @@
       <c r="AA295" s="5"/>
       <c r="AB295" s="5"/>
     </row>
-    <row r="296" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -10730,7 +10786,7 @@
       <c r="AA296" s="5"/>
       <c r="AB296" s="5"/>
     </row>
-    <row r="297" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -10760,7 +10816,7 @@
       <c r="AA297" s="5"/>
       <c r="AB297" s="5"/>
     </row>
-    <row r="298" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -10790,7 +10846,7 @@
       <c r="AA298" s="5"/>
       <c r="AB298" s="5"/>
     </row>
-    <row r="299" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -10820,7 +10876,7 @@
       <c r="AA299" s="5"/>
       <c r="AB299" s="5"/>
     </row>
-    <row r="300" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -10850,7 +10906,7 @@
       <c r="AA300" s="5"/>
       <c r="AB300" s="5"/>
     </row>
-    <row r="301" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -10880,7 +10936,7 @@
       <c r="AA301" s="5"/>
       <c r="AB301" s="5"/>
     </row>
-    <row r="302" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -10910,7 +10966,7 @@
       <c r="AA302" s="5"/>
       <c r="AB302" s="5"/>
     </row>
-    <row r="303" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -10940,7 +10996,7 @@
       <c r="AA303" s="5"/>
       <c r="AB303" s="5"/>
     </row>
-    <row r="304" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -10970,7 +11026,7 @@
       <c r="AA304" s="5"/>
       <c r="AB304" s="5"/>
     </row>
-    <row r="305" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -11000,7 +11056,7 @@
       <c r="AA305" s="5"/>
       <c r="AB305" s="5"/>
     </row>
-    <row r="306" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -11030,7 +11086,7 @@
       <c r="AA306" s="5"/>
       <c r="AB306" s="5"/>
     </row>
-    <row r="307" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -11060,7 +11116,7 @@
       <c r="AA307" s="5"/>
       <c r="AB307" s="5"/>
     </row>
-    <row r="308" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -11090,7 +11146,7 @@
       <c r="AA308" s="5"/>
       <c r="AB308" s="5"/>
     </row>
-    <row r="309" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -11120,7 +11176,7 @@
       <c r="AA309" s="5"/>
       <c r="AB309" s="5"/>
     </row>
-    <row r="310" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -11150,7 +11206,7 @@
       <c r="AA310" s="5"/>
       <c r="AB310" s="5"/>
     </row>
-    <row r="311" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -11180,7 +11236,7 @@
       <c r="AA311" s="5"/>
       <c r="AB311" s="5"/>
     </row>
-    <row r="312" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -11210,7 +11266,7 @@
       <c r="AA312" s="5"/>
       <c r="AB312" s="5"/>
     </row>
-    <row r="313" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -11240,7 +11296,7 @@
       <c r="AA313" s="5"/>
       <c r="AB313" s="5"/>
     </row>
-    <row r="314" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -11270,7 +11326,7 @@
       <c r="AA314" s="5"/>
       <c r="AB314" s="5"/>
     </row>
-    <row r="315" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -11300,7 +11356,7 @@
       <c r="AA315" s="5"/>
       <c r="AB315" s="5"/>
     </row>
-    <row r="316" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -11330,7 +11386,7 @@
       <c r="AA316" s="5"/>
       <c r="AB316" s="5"/>
     </row>
-    <row r="317" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -11360,7 +11416,7 @@
       <c r="AA317" s="5"/>
       <c r="AB317" s="5"/>
     </row>
-    <row r="318" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -11390,7 +11446,7 @@
       <c r="AA318" s="5"/>
       <c r="AB318" s="5"/>
     </row>
-    <row r="319" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -11420,7 +11476,7 @@
       <c r="AA319" s="5"/>
       <c r="AB319" s="5"/>
     </row>
-    <row r="320" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -11450,7 +11506,7 @@
       <c r="AA320" s="5"/>
       <c r="AB320" s="5"/>
     </row>
-    <row r="321" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -11480,7 +11536,7 @@
       <c r="AA321" s="5"/>
       <c r="AB321" s="5"/>
     </row>
-    <row r="322" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -11510,7 +11566,7 @@
       <c r="AA322" s="5"/>
       <c r="AB322" s="5"/>
     </row>
-    <row r="323" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -11540,7 +11596,7 @@
       <c r="AA323" s="5"/>
       <c r="AB323" s="5"/>
     </row>
-    <row r="324" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -11570,7 +11626,7 @@
       <c r="AA324" s="5"/>
       <c r="AB324" s="5"/>
     </row>
-    <row r="325" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -11600,7 +11656,7 @@
       <c r="AA325" s="5"/>
       <c r="AB325" s="5"/>
     </row>
-    <row r="326" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -11630,7 +11686,7 @@
       <c r="AA326" s="5"/>
       <c r="AB326" s="5"/>
     </row>
-    <row r="327" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -11660,7 +11716,7 @@
       <c r="AA327" s="5"/>
       <c r="AB327" s="5"/>
     </row>
-    <row r="328" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -11690,7 +11746,7 @@
       <c r="AA328" s="5"/>
       <c r="AB328" s="5"/>
     </row>
-    <row r="329" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -11720,7 +11776,7 @@
       <c r="AA329" s="5"/>
       <c r="AB329" s="5"/>
     </row>
-    <row r="330" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -11750,7 +11806,7 @@
       <c r="AA330" s="5"/>
       <c r="AB330" s="5"/>
     </row>
-    <row r="331" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -11780,7 +11836,7 @@
       <c r="AA331" s="5"/>
       <c r="AB331" s="5"/>
     </row>
-    <row r="332" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -11810,7 +11866,7 @@
       <c r="AA332" s="5"/>
       <c r="AB332" s="5"/>
     </row>
-    <row r="333" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -11840,7 +11896,7 @@
       <c r="AA333" s="5"/>
       <c r="AB333" s="5"/>
     </row>
-    <row r="334" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -11870,7 +11926,7 @@
       <c r="AA334" s="5"/>
       <c r="AB334" s="5"/>
     </row>
-    <row r="335" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -11900,7 +11956,7 @@
       <c r="AA335" s="5"/>
       <c r="AB335" s="5"/>
     </row>
-    <row r="336" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -11930,7 +11986,7 @@
       <c r="AA336" s="5"/>
       <c r="AB336" s="5"/>
     </row>
-    <row r="337" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -11960,7 +12016,7 @@
       <c r="AA337" s="5"/>
       <c r="AB337" s="5"/>
     </row>
-    <row r="338" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -11990,7 +12046,7 @@
       <c r="AA338" s="5"/>
       <c r="AB338" s="5"/>
     </row>
-    <row r="339" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -12020,7 +12076,7 @@
       <c r="AA339" s="5"/>
       <c r="AB339" s="5"/>
     </row>
-    <row r="340" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -12050,7 +12106,7 @@
       <c r="AA340" s="5"/>
       <c r="AB340" s="5"/>
     </row>
-    <row r="341" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -12080,7 +12136,7 @@
       <c r="AA341" s="5"/>
       <c r="AB341" s="5"/>
     </row>
-    <row r="342" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -12110,7 +12166,7 @@
       <c r="AA342" s="5"/>
       <c r="AB342" s="5"/>
     </row>
-    <row r="343" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -12140,7 +12196,7 @@
       <c r="AA343" s="5"/>
       <c r="AB343" s="5"/>
     </row>
-    <row r="344" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -12170,7 +12226,7 @@
       <c r="AA344" s="5"/>
       <c r="AB344" s="5"/>
     </row>
-    <row r="345" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -12200,7 +12256,7 @@
       <c r="AA345" s="5"/>
       <c r="AB345" s="5"/>
     </row>
-    <row r="346" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -12230,7 +12286,7 @@
       <c r="AA346" s="5"/>
       <c r="AB346" s="5"/>
     </row>
-    <row r="347" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -12260,7 +12316,7 @@
       <c r="AA347" s="5"/>
       <c r="AB347" s="5"/>
     </row>
-    <row r="348" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -12290,7 +12346,7 @@
       <c r="AA348" s="5"/>
       <c r="AB348" s="5"/>
     </row>
-    <row r="349" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -12320,7 +12376,7 @@
       <c r="AA349" s="5"/>
       <c r="AB349" s="5"/>
     </row>
-    <row r="350" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -12350,7 +12406,7 @@
       <c r="AA350" s="5"/>
       <c r="AB350" s="5"/>
     </row>
-    <row r="351" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -12380,7 +12436,7 @@
       <c r="AA351" s="5"/>
       <c r="AB351" s="5"/>
     </row>
-    <row r="352" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -12410,7 +12466,7 @@
       <c r="AA352" s="5"/>
       <c r="AB352" s="5"/>
     </row>
-    <row r="353" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -12440,7 +12496,7 @@
       <c r="AA353" s="5"/>
       <c r="AB353" s="5"/>
     </row>
-    <row r="354" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -12470,7 +12526,7 @@
       <c r="AA354" s="5"/>
       <c r="AB354" s="5"/>
     </row>
-    <row r="355" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -12500,7 +12556,7 @@
       <c r="AA355" s="5"/>
       <c r="AB355" s="5"/>
     </row>
-    <row r="356" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -12530,7 +12586,7 @@
       <c r="AA356" s="5"/>
       <c r="AB356" s="5"/>
     </row>
-    <row r="357" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -12560,7 +12616,7 @@
       <c r="AA357" s="5"/>
       <c r="AB357" s="5"/>
     </row>
-    <row r="358" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -12590,7 +12646,7 @@
       <c r="AA358" s="5"/>
       <c r="AB358" s="5"/>
     </row>
-    <row r="359" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -12620,7 +12676,7 @@
       <c r="AA359" s="5"/>
       <c r="AB359" s="5"/>
     </row>
-    <row r="360" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -12650,7 +12706,7 @@
       <c r="AA360" s="5"/>
       <c r="AB360" s="5"/>
     </row>
-    <row r="361" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -12680,7 +12736,7 @@
       <c r="AA361" s="5"/>
       <c r="AB361" s="5"/>
     </row>
-    <row r="362" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -12710,7 +12766,7 @@
       <c r="AA362" s="5"/>
       <c r="AB362" s="5"/>
     </row>
-    <row r="363" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -12740,7 +12796,7 @@
       <c r="AA363" s="5"/>
       <c r="AB363" s="5"/>
     </row>
-    <row r="364" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -12770,7 +12826,7 @@
       <c r="AA364" s="5"/>
       <c r="AB364" s="5"/>
     </row>
-    <row r="365" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -12800,7 +12856,7 @@
       <c r="AA365" s="5"/>
       <c r="AB365" s="5"/>
     </row>
-    <row r="366" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -12830,7 +12886,7 @@
       <c r="AA366" s="5"/>
       <c r="AB366" s="5"/>
     </row>
-    <row r="367" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -12860,7 +12916,7 @@
       <c r="AA367" s="5"/>
       <c r="AB367" s="5"/>
     </row>
-    <row r="368" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -12890,7 +12946,7 @@
       <c r="AA368" s="5"/>
       <c r="AB368" s="5"/>
     </row>
-    <row r="369" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -12920,7 +12976,7 @@
       <c r="AA369" s="5"/>
       <c r="AB369" s="5"/>
     </row>
-    <row r="370" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -12950,7 +13006,7 @@
       <c r="AA370" s="5"/>
       <c r="AB370" s="5"/>
     </row>
-    <row r="371" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -12980,7 +13036,7 @@
       <c r="AA371" s="5"/>
       <c r="AB371" s="5"/>
     </row>
-    <row r="372" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -13010,7 +13066,7 @@
       <c r="AA372" s="5"/>
       <c r="AB372" s="5"/>
     </row>
-    <row r="373" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -13040,7 +13096,7 @@
       <c r="AA373" s="5"/>
       <c r="AB373" s="5"/>
     </row>
-    <row r="374" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -13070,7 +13126,7 @@
       <c r="AA374" s="5"/>
       <c r="AB374" s="5"/>
     </row>
-    <row r="375" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -13100,7 +13156,7 @@
       <c r="AA375" s="5"/>
       <c r="AB375" s="5"/>
     </row>
-    <row r="376" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -13130,7 +13186,7 @@
       <c r="AA376" s="5"/>
       <c r="AB376" s="5"/>
     </row>
-    <row r="377" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -13160,7 +13216,7 @@
       <c r="AA377" s="5"/>
       <c r="AB377" s="5"/>
     </row>
-    <row r="378" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -13190,7 +13246,7 @@
       <c r="AA378" s="5"/>
       <c r="AB378" s="5"/>
     </row>
-    <row r="379" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -13220,7 +13276,7 @@
       <c r="AA379" s="5"/>
       <c r="AB379" s="5"/>
     </row>
-    <row r="380" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -13250,7 +13306,7 @@
       <c r="AA380" s="5"/>
       <c r="AB380" s="5"/>
     </row>
-    <row r="381" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -13280,7 +13336,7 @@
       <c r="AA381" s="5"/>
       <c r="AB381" s="5"/>
     </row>
-    <row r="382" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -13310,7 +13366,7 @@
       <c r="AA382" s="5"/>
       <c r="AB382" s="5"/>
     </row>
-    <row r="383" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -13340,7 +13396,7 @@
       <c r="AA383" s="5"/>
       <c r="AB383" s="5"/>
     </row>
-    <row r="384" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -13370,7 +13426,7 @@
       <c r="AA384" s="5"/>
       <c r="AB384" s="5"/>
     </row>
-    <row r="385" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -13400,7 +13456,7 @@
       <c r="AA385" s="5"/>
       <c r="AB385" s="5"/>
     </row>
-    <row r="386" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -13430,7 +13486,7 @@
       <c r="AA386" s="5"/>
       <c r="AB386" s="5"/>
     </row>
-    <row r="387" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -13460,7 +13516,7 @@
       <c r="AA387" s="5"/>
       <c r="AB387" s="5"/>
     </row>
-    <row r="388" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -13490,7 +13546,7 @@
       <c r="AA388" s="5"/>
       <c r="AB388" s="5"/>
     </row>
-    <row r="389" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -13520,7 +13576,7 @@
       <c r="AA389" s="5"/>
       <c r="AB389" s="5"/>
     </row>
-    <row r="390" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -13550,7 +13606,7 @@
       <c r="AA390" s="5"/>
       <c r="AB390" s="5"/>
     </row>
-    <row r="391" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -13580,7 +13636,7 @@
       <c r="AA391" s="5"/>
       <c r="AB391" s="5"/>
     </row>
-    <row r="392" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -13610,7 +13666,7 @@
       <c r="AA392" s="5"/>
       <c r="AB392" s="5"/>
     </row>
-    <row r="393" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -13640,7 +13696,7 @@
       <c r="AA393" s="5"/>
       <c r="AB393" s="5"/>
     </row>
-    <row r="394" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -13670,7 +13726,7 @@
       <c r="AA394" s="5"/>
       <c r="AB394" s="5"/>
     </row>
-    <row r="395" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -13700,7 +13756,7 @@
       <c r="AA395" s="5"/>
       <c r="AB395" s="5"/>
     </row>
-    <row r="396" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -13730,7 +13786,7 @@
       <c r="AA396" s="5"/>
       <c r="AB396" s="5"/>
     </row>
-    <row r="397" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -13760,7 +13816,7 @@
       <c r="AA397" s="5"/>
       <c r="AB397" s="5"/>
     </row>
-    <row r="398" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -13790,7 +13846,7 @@
       <c r="AA398" s="5"/>
       <c r="AB398" s="5"/>
     </row>
-    <row r="399" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -13820,7 +13876,7 @@
       <c r="AA399" s="5"/>
       <c r="AB399" s="5"/>
     </row>
-    <row r="400" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -13850,7 +13906,7 @@
       <c r="AA400" s="5"/>
       <c r="AB400" s="5"/>
     </row>
-    <row r="401" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -13880,7 +13936,7 @@
       <c r="AA401" s="5"/>
       <c r="AB401" s="5"/>
     </row>
-    <row r="402" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -13910,7 +13966,7 @@
       <c r="AA402" s="5"/>
       <c r="AB402" s="5"/>
     </row>
-    <row r="403" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -13940,7 +13996,7 @@
       <c r="AA403" s="5"/>
       <c r="AB403" s="5"/>
     </row>
-    <row r="404" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -13970,7 +14026,7 @@
       <c r="AA404" s="5"/>
       <c r="AB404" s="5"/>
     </row>
-    <row r="405" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -14000,7 +14056,7 @@
       <c r="AA405" s="5"/>
       <c r="AB405" s="5"/>
     </row>
-    <row r="406" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -14030,7 +14086,7 @@
       <c r="AA406" s="5"/>
       <c r="AB406" s="5"/>
     </row>
-    <row r="407" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -14060,7 +14116,7 @@
       <c r="AA407" s="5"/>
       <c r="AB407" s="5"/>
     </row>
-    <row r="408" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -14090,7 +14146,7 @@
       <c r="AA408" s="5"/>
       <c r="AB408" s="5"/>
     </row>
-    <row r="409" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -14120,7 +14176,7 @@
       <c r="AA409" s="5"/>
       <c r="AB409" s="5"/>
     </row>
-    <row r="410" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -14150,7 +14206,7 @@
       <c r="AA410" s="5"/>
       <c r="AB410" s="5"/>
     </row>
-    <row r="411" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -14180,7 +14236,7 @@
       <c r="AA411" s="5"/>
       <c r="AB411" s="5"/>
     </row>
-    <row r="412" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -14210,7 +14266,7 @@
       <c r="AA412" s="5"/>
       <c r="AB412" s="5"/>
     </row>
-    <row r="413" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -14240,7 +14296,7 @@
       <c r="AA413" s="5"/>
       <c r="AB413" s="5"/>
     </row>
-    <row r="414" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -14270,7 +14326,7 @@
       <c r="AA414" s="5"/>
       <c r="AB414" s="5"/>
     </row>
-    <row r="415" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -14300,7 +14356,7 @@
       <c r="AA415" s="5"/>
       <c r="AB415" s="5"/>
     </row>
-    <row r="416" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -14330,7 +14386,7 @@
       <c r="AA416" s="5"/>
       <c r="AB416" s="5"/>
     </row>
-    <row r="417" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -14360,7 +14416,7 @@
       <c r="AA417" s="5"/>
       <c r="AB417" s="5"/>
     </row>
-    <row r="418" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -14390,7 +14446,7 @@
       <c r="AA418" s="5"/>
       <c r="AB418" s="5"/>
     </row>
-    <row r="419" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -14420,7 +14476,7 @@
       <c r="AA419" s="5"/>
       <c r="AB419" s="5"/>
     </row>
-    <row r="420" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -14450,7 +14506,7 @@
       <c r="AA420" s="5"/>
       <c r="AB420" s="5"/>
     </row>
-    <row r="421" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -14480,7 +14536,7 @@
       <c r="AA421" s="5"/>
       <c r="AB421" s="5"/>
     </row>
-    <row r="422" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -14510,7 +14566,7 @@
       <c r="AA422" s="5"/>
       <c r="AB422" s="5"/>
     </row>
-    <row r="423" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -14540,7 +14596,7 @@
       <c r="AA423" s="5"/>
       <c r="AB423" s="5"/>
     </row>
-    <row r="424" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -14570,7 +14626,7 @@
       <c r="AA424" s="5"/>
       <c r="AB424" s="5"/>
     </row>
-    <row r="425" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -14600,7 +14656,7 @@
       <c r="AA425" s="5"/>
       <c r="AB425" s="5"/>
     </row>
-    <row r="426" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -14630,7 +14686,7 @@
       <c r="AA426" s="5"/>
       <c r="AB426" s="5"/>
     </row>
-    <row r="427" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -14660,7 +14716,7 @@
       <c r="AA427" s="5"/>
       <c r="AB427" s="5"/>
     </row>
-    <row r="428" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -14690,7 +14746,7 @@
       <c r="AA428" s="5"/>
       <c r="AB428" s="5"/>
     </row>
-    <row r="429" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -14720,7 +14776,7 @@
       <c r="AA429" s="5"/>
       <c r="AB429" s="5"/>
     </row>
-    <row r="430" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -14750,7 +14806,7 @@
       <c r="AA430" s="5"/>
       <c r="AB430" s="5"/>
     </row>
-    <row r="431" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -14780,7 +14836,7 @@
       <c r="AA431" s="5"/>
       <c r="AB431" s="5"/>
     </row>
-    <row r="432" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -14810,7 +14866,7 @@
       <c r="AA432" s="5"/>
       <c r="AB432" s="5"/>
     </row>
-    <row r="433" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -14840,7 +14896,7 @@
       <c r="AA433" s="5"/>
       <c r="AB433" s="5"/>
     </row>
-    <row r="434" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -14870,7 +14926,7 @@
       <c r="AA434" s="5"/>
       <c r="AB434" s="5"/>
     </row>
-    <row r="435" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -14900,7 +14956,7 @@
       <c r="AA435" s="5"/>
       <c r="AB435" s="5"/>
     </row>
-    <row r="436" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -14930,7 +14986,7 @@
       <c r="AA436" s="5"/>
       <c r="AB436" s="5"/>
     </row>
-    <row r="437" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -14960,7 +15016,7 @@
       <c r="AA437" s="5"/>
       <c r="AB437" s="5"/>
     </row>
-    <row r="438" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -14990,7 +15046,7 @@
       <c r="AA438" s="5"/>
       <c r="AB438" s="5"/>
     </row>
-    <row r="439" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -15020,7 +15076,7 @@
       <c r="AA439" s="5"/>
       <c r="AB439" s="5"/>
     </row>
-    <row r="440" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -15050,7 +15106,7 @@
       <c r="AA440" s="5"/>
       <c r="AB440" s="5"/>
     </row>
-    <row r="441" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -15080,7 +15136,7 @@
       <c r="AA441" s="5"/>
       <c r="AB441" s="5"/>
     </row>
-    <row r="442" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -15110,7 +15166,7 @@
       <c r="AA442" s="5"/>
       <c r="AB442" s="5"/>
     </row>
-    <row r="443" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -15140,7 +15196,7 @@
       <c r="AA443" s="5"/>
       <c r="AB443" s="5"/>
     </row>
-    <row r="444" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -15170,7 +15226,7 @@
       <c r="AA444" s="5"/>
       <c r="AB444" s="5"/>
     </row>
-    <row r="445" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -15200,7 +15256,7 @@
       <c r="AA445" s="5"/>
       <c r="AB445" s="5"/>
     </row>
-    <row r="446" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -15230,7 +15286,7 @@
       <c r="AA446" s="5"/>
       <c r="AB446" s="5"/>
     </row>
-    <row r="447" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -15260,7 +15316,7 @@
       <c r="AA447" s="5"/>
       <c r="AB447" s="5"/>
     </row>
-    <row r="448" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -15290,7 +15346,7 @@
       <c r="AA448" s="5"/>
       <c r="AB448" s="5"/>
     </row>
-    <row r="449" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -15320,7 +15376,7 @@
       <c r="AA449" s="5"/>
       <c r="AB449" s="5"/>
     </row>
-    <row r="450" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -15350,7 +15406,7 @@
       <c r="AA450" s="5"/>
       <c r="AB450" s="5"/>
     </row>
-    <row r="451" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -15380,7 +15436,7 @@
       <c r="AA451" s="5"/>
       <c r="AB451" s="5"/>
     </row>
-    <row r="452" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -15410,7 +15466,7 @@
       <c r="AA452" s="5"/>
       <c r="AB452" s="5"/>
     </row>
-    <row r="453" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -15440,7 +15496,7 @@
       <c r="AA453" s="5"/>
       <c r="AB453" s="5"/>
     </row>
-    <row r="454" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -15470,7 +15526,7 @@
       <c r="AA454" s="5"/>
       <c r="AB454" s="5"/>
     </row>
-    <row r="455" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -15500,7 +15556,7 @@
       <c r="AA455" s="5"/>
       <c r="AB455" s="5"/>
     </row>
-    <row r="456" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -15530,7 +15586,7 @@
       <c r="AA456" s="5"/>
       <c r="AB456" s="5"/>
     </row>
-    <row r="457" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -15560,7 +15616,7 @@
       <c r="AA457" s="5"/>
       <c r="AB457" s="5"/>
     </row>
-    <row r="458" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -15590,7 +15646,7 @@
       <c r="AA458" s="5"/>
       <c r="AB458" s="5"/>
     </row>
-    <row r="459" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -15620,7 +15676,7 @@
       <c r="AA459" s="5"/>
       <c r="AB459" s="5"/>
     </row>
-    <row r="460" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -15650,7 +15706,7 @@
       <c r="AA460" s="5"/>
       <c r="AB460" s="5"/>
     </row>
-    <row r="461" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -15680,7 +15736,7 @@
       <c r="AA461" s="5"/>
       <c r="AB461" s="5"/>
     </row>
-    <row r="462" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -15710,7 +15766,7 @@
       <c r="AA462" s="5"/>
       <c r="AB462" s="5"/>
     </row>
-    <row r="463" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -15740,7 +15796,7 @@
       <c r="AA463" s="5"/>
       <c r="AB463" s="5"/>
     </row>
-    <row r="464" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -15770,7 +15826,7 @@
       <c r="AA464" s="5"/>
       <c r="AB464" s="5"/>
     </row>
-    <row r="465" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -15800,7 +15856,7 @@
       <c r="AA465" s="5"/>
       <c r="AB465" s="5"/>
     </row>
-    <row r="466" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -15830,7 +15886,7 @@
       <c r="AA466" s="5"/>
       <c r="AB466" s="5"/>
     </row>
-    <row r="467" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -15860,7 +15916,7 @@
       <c r="AA467" s="5"/>
       <c r="AB467" s="5"/>
     </row>
-    <row r="468" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -15890,7 +15946,7 @@
       <c r="AA468" s="5"/>
       <c r="AB468" s="5"/>
     </row>
-    <row r="469" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -15920,7 +15976,7 @@
       <c r="AA469" s="5"/>
       <c r="AB469" s="5"/>
     </row>
-    <row r="470" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -15950,7 +16006,7 @@
       <c r="AA470" s="5"/>
       <c r="AB470" s="5"/>
     </row>
-    <row r="471" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -15980,7 +16036,7 @@
       <c r="AA471" s="5"/>
       <c r="AB471" s="5"/>
     </row>
-    <row r="472" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -16010,7 +16066,7 @@
       <c r="AA472" s="5"/>
       <c r="AB472" s="5"/>
     </row>
-    <row r="473" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -16040,7 +16096,7 @@
       <c r="AA473" s="5"/>
       <c r="AB473" s="5"/>
     </row>
-    <row r="474" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -16070,7 +16126,7 @@
       <c r="AA474" s="5"/>
       <c r="AB474" s="5"/>
     </row>
-    <row r="475" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -16100,7 +16156,7 @@
       <c r="AA475" s="5"/>
       <c r="AB475" s="5"/>
     </row>
-    <row r="476" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -16130,7 +16186,7 @@
       <c r="AA476" s="5"/>
       <c r="AB476" s="5"/>
     </row>
-    <row r="477" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -16160,7 +16216,7 @@
       <c r="AA477" s="5"/>
       <c r="AB477" s="5"/>
     </row>
-    <row r="478" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -16190,7 +16246,7 @@
       <c r="AA478" s="5"/>
       <c r="AB478" s="5"/>
     </row>
-    <row r="479" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -16220,7 +16276,7 @@
       <c r="AA479" s="5"/>
       <c r="AB479" s="5"/>
     </row>
-    <row r="480" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -16250,7 +16306,7 @@
       <c r="AA480" s="5"/>
       <c r="AB480" s="5"/>
     </row>
-    <row r="481" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -16280,7 +16336,7 @@
       <c r="AA481" s="5"/>
       <c r="AB481" s="5"/>
     </row>
-    <row r="482" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -16310,7 +16366,7 @@
       <c r="AA482" s="5"/>
       <c r="AB482" s="5"/>
     </row>
-    <row r="483" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -16340,7 +16396,7 @@
       <c r="AA483" s="5"/>
       <c r="AB483" s="5"/>
     </row>
-    <row r="484" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -16370,7 +16426,7 @@
       <c r="AA484" s="5"/>
       <c r="AB484" s="5"/>
     </row>
-    <row r="485" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -16400,7 +16456,7 @@
       <c r="AA485" s="5"/>
       <c r="AB485" s="5"/>
     </row>
-    <row r="486" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -16430,7 +16486,7 @@
       <c r="AA486" s="5"/>
       <c r="AB486" s="5"/>
     </row>
-    <row r="487" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -16460,7 +16516,7 @@
       <c r="AA487" s="5"/>
       <c r="AB487" s="5"/>
     </row>
-    <row r="488" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -16490,7 +16546,7 @@
       <c r="AA488" s="5"/>
       <c r="AB488" s="5"/>
     </row>
-    <row r="489" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -16520,7 +16576,7 @@
       <c r="AA489" s="5"/>
       <c r="AB489" s="5"/>
     </row>
-    <row r="490" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -16550,7 +16606,7 @@
       <c r="AA490" s="5"/>
       <c r="AB490" s="5"/>
     </row>
-    <row r="491" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -16580,7 +16636,7 @@
       <c r="AA491" s="5"/>
       <c r="AB491" s="5"/>
     </row>
-    <row r="492" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -16610,7 +16666,7 @@
       <c r="AA492" s="5"/>
       <c r="AB492" s="5"/>
     </row>
-    <row r="493" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -16640,7 +16696,7 @@
       <c r="AA493" s="5"/>
       <c r="AB493" s="5"/>
     </row>
-    <row r="494" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -16670,7 +16726,7 @@
       <c r="AA494" s="5"/>
       <c r="AB494" s="5"/>
     </row>
-    <row r="495" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -16700,7 +16756,7 @@
       <c r="AA495" s="5"/>
       <c r="AB495" s="5"/>
     </row>
-    <row r="496" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -16730,7 +16786,7 @@
       <c r="AA496" s="5"/>
       <c r="AB496" s="5"/>
     </row>
-    <row r="497" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -16760,7 +16816,7 @@
       <c r="AA497" s="5"/>
       <c r="AB497" s="5"/>
     </row>
-    <row r="498" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -16790,7 +16846,7 @@
       <c r="AA498" s="5"/>
       <c r="AB498" s="5"/>
     </row>
-    <row r="499" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -16820,7 +16876,7 @@
       <c r="AA499" s="5"/>
       <c r="AB499" s="5"/>
     </row>
-    <row r="500" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -16850,7 +16906,7 @@
       <c r="AA500" s="5"/>
       <c r="AB500" s="5"/>
     </row>
-    <row r="501" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -16880,7 +16936,7 @@
       <c r="AA501" s="5"/>
       <c r="AB501" s="5"/>
     </row>
-    <row r="502" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -16910,7 +16966,7 @@
       <c r="AA502" s="5"/>
       <c r="AB502" s="5"/>
     </row>
-    <row r="503" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -16940,7 +16996,7 @@
       <c r="AA503" s="5"/>
       <c r="AB503" s="5"/>
     </row>
-    <row r="504" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -16970,7 +17026,7 @@
       <c r="AA504" s="5"/>
       <c r="AB504" s="5"/>
     </row>
-    <row r="505" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -17000,7 +17056,7 @@
       <c r="AA505" s="5"/>
       <c r="AB505" s="5"/>
     </row>
-    <row r="506" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -17030,7 +17086,7 @@
       <c r="AA506" s="5"/>
       <c r="AB506" s="5"/>
     </row>
-    <row r="507" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -17060,7 +17116,7 @@
       <c r="AA507" s="5"/>
       <c r="AB507" s="5"/>
     </row>
-    <row r="508" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -17090,7 +17146,7 @@
       <c r="AA508" s="5"/>
       <c r="AB508" s="5"/>
     </row>
-    <row r="509" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -17120,7 +17176,7 @@
       <c r="AA509" s="5"/>
       <c r="AB509" s="5"/>
     </row>
-    <row r="510" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -17150,7 +17206,7 @@
       <c r="AA510" s="5"/>
       <c r="AB510" s="5"/>
     </row>
-    <row r="511" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -17180,7 +17236,7 @@
       <c r="AA511" s="5"/>
       <c r="AB511" s="5"/>
     </row>
-    <row r="512" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -17210,7 +17266,7 @@
       <c r="AA512" s="5"/>
       <c r="AB512" s="5"/>
     </row>
-    <row r="513" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -17240,7 +17296,7 @@
       <c r="AA513" s="5"/>
       <c r="AB513" s="5"/>
     </row>
-    <row r="514" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -17270,7 +17326,7 @@
       <c r="AA514" s="5"/>
       <c r="AB514" s="5"/>
     </row>
-    <row r="515" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -17300,7 +17356,7 @@
       <c r="AA515" s="5"/>
       <c r="AB515" s="5"/>
     </row>
-    <row r="516" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -17330,7 +17386,7 @@
       <c r="AA516" s="5"/>
       <c r="AB516" s="5"/>
     </row>
-    <row r="517" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -17360,7 +17416,7 @@
       <c r="AA517" s="5"/>
       <c r="AB517" s="5"/>
     </row>
-    <row r="518" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -17390,7 +17446,7 @@
       <c r="AA518" s="5"/>
       <c r="AB518" s="5"/>
     </row>
-    <row r="519" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -17420,7 +17476,7 @@
       <c r="AA519" s="5"/>
       <c r="AB519" s="5"/>
     </row>
-    <row r="520" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -17450,7 +17506,7 @@
       <c r="AA520" s="5"/>
       <c r="AB520" s="5"/>
     </row>
-    <row r="521" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -17480,7 +17536,7 @@
       <c r="AA521" s="5"/>
       <c r="AB521" s="5"/>
     </row>
-    <row r="522" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -17510,7 +17566,7 @@
       <c r="AA522" s="5"/>
       <c r="AB522" s="5"/>
     </row>
-    <row r="523" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -17540,7 +17596,7 @@
       <c r="AA523" s="5"/>
       <c r="AB523" s="5"/>
     </row>
-    <row r="524" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -17570,7 +17626,7 @@
       <c r="AA524" s="5"/>
       <c r="AB524" s="5"/>
     </row>
-    <row r="525" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -17600,7 +17656,7 @@
       <c r="AA525" s="5"/>
       <c r="AB525" s="5"/>
     </row>
-    <row r="526" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -17630,7 +17686,7 @@
       <c r="AA526" s="5"/>
       <c r="AB526" s="5"/>
     </row>
-    <row r="527" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -17660,7 +17716,7 @@
       <c r="AA527" s="5"/>
       <c r="AB527" s="5"/>
     </row>
-    <row r="528" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -17690,7 +17746,7 @@
       <c r="AA528" s="5"/>
       <c r="AB528" s="5"/>
     </row>
-    <row r="529" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -17720,7 +17776,7 @@
       <c r="AA529" s="5"/>
       <c r="AB529" s="5"/>
     </row>
-    <row r="530" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -17750,7 +17806,7 @@
       <c r="AA530" s="5"/>
       <c r="AB530" s="5"/>
     </row>
-    <row r="531" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -17780,7 +17836,7 @@
       <c r="AA531" s="5"/>
       <c r="AB531" s="5"/>
     </row>
-    <row r="532" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -17810,7 +17866,7 @@
       <c r="AA532" s="5"/>
       <c r="AB532" s="5"/>
     </row>
-    <row r="533" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -17840,7 +17896,7 @@
       <c r="AA533" s="5"/>
       <c r="AB533" s="5"/>
     </row>
-    <row r="534" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -17870,7 +17926,7 @@
       <c r="AA534" s="5"/>
       <c r="AB534" s="5"/>
     </row>
-    <row r="535" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -17900,7 +17956,7 @@
       <c r="AA535" s="5"/>
       <c r="AB535" s="5"/>
     </row>
-    <row r="536" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -17930,7 +17986,7 @@
       <c r="AA536" s="5"/>
       <c r="AB536" s="5"/>
     </row>
-    <row r="537" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -17960,7 +18016,7 @@
       <c r="AA537" s="5"/>
       <c r="AB537" s="5"/>
     </row>
-    <row r="538" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -17990,7 +18046,7 @@
       <c r="AA538" s="5"/>
       <c r="AB538" s="5"/>
     </row>
-    <row r="539" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -18020,7 +18076,7 @@
       <c r="AA539" s="5"/>
       <c r="AB539" s="5"/>
     </row>
-    <row r="540" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -18050,7 +18106,7 @@
       <c r="AA540" s="5"/>
       <c r="AB540" s="5"/>
     </row>
-    <row r="541" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -18080,7 +18136,7 @@
       <c r="AA541" s="5"/>
       <c r="AB541" s="5"/>
     </row>
-    <row r="542" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -18110,7 +18166,7 @@
       <c r="AA542" s="5"/>
       <c r="AB542" s="5"/>
     </row>
-    <row r="543" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -18140,7 +18196,7 @@
       <c r="AA543" s="5"/>
       <c r="AB543" s="5"/>
     </row>
-    <row r="544" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -18170,7 +18226,7 @@
       <c r="AA544" s="5"/>
       <c r="AB544" s="5"/>
     </row>
-    <row r="545" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -18200,7 +18256,7 @@
       <c r="AA545" s="5"/>
       <c r="AB545" s="5"/>
     </row>
-    <row r="546" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -18230,7 +18286,7 @@
       <c r="AA546" s="5"/>
       <c r="AB546" s="5"/>
     </row>
-    <row r="547" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -18260,7 +18316,7 @@
       <c r="AA547" s="5"/>
       <c r="AB547" s="5"/>
     </row>
-    <row r="548" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -18290,7 +18346,7 @@
       <c r="AA548" s="5"/>
       <c r="AB548" s="5"/>
     </row>
-    <row r="549" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -18320,7 +18376,7 @@
       <c r="AA549" s="5"/>
       <c r="AB549" s="5"/>
     </row>
-    <row r="550" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -18350,7 +18406,7 @@
       <c r="AA550" s="5"/>
       <c r="AB550" s="5"/>
     </row>
-    <row r="551" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -18380,7 +18436,7 @@
       <c r="AA551" s="5"/>
       <c r="AB551" s="5"/>
     </row>
-    <row r="552" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -18410,7 +18466,7 @@
       <c r="AA552" s="5"/>
       <c r="AB552" s="5"/>
     </row>
-    <row r="553" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -18440,7 +18496,7 @@
       <c r="AA553" s="5"/>
       <c r="AB553" s="5"/>
     </row>
-    <row r="554" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -18470,7 +18526,7 @@
       <c r="AA554" s="5"/>
       <c r="AB554" s="5"/>
     </row>
-    <row r="555" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -18500,7 +18556,7 @@
       <c r="AA555" s="5"/>
       <c r="AB555" s="5"/>
     </row>
-    <row r="556" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -18530,7 +18586,7 @@
       <c r="AA556" s="5"/>
       <c r="AB556" s="5"/>
     </row>
-    <row r="557" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -18560,7 +18616,7 @@
       <c r="AA557" s="5"/>
       <c r="AB557" s="5"/>
     </row>
-    <row r="558" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -18590,7 +18646,7 @@
       <c r="AA558" s="5"/>
       <c r="AB558" s="5"/>
     </row>
-    <row r="559" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -18620,7 +18676,7 @@
       <c r="AA559" s="5"/>
       <c r="AB559" s="5"/>
     </row>
-    <row r="560" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -18650,7 +18706,7 @@
       <c r="AA560" s="5"/>
       <c r="AB560" s="5"/>
     </row>
-    <row r="561" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -18680,7 +18736,7 @@
       <c r="AA561" s="5"/>
       <c r="AB561" s="5"/>
     </row>
-    <row r="562" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -18710,7 +18766,7 @@
       <c r="AA562" s="5"/>
       <c r="AB562" s="5"/>
     </row>
-    <row r="563" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -18740,7 +18796,7 @@
       <c r="AA563" s="5"/>
       <c r="AB563" s="5"/>
     </row>
-    <row r="564" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -18770,7 +18826,7 @@
       <c r="AA564" s="5"/>
       <c r="AB564" s="5"/>
     </row>
-    <row r="565" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -18800,7 +18856,7 @@
       <c r="AA565" s="5"/>
       <c r="AB565" s="5"/>
     </row>
-    <row r="566" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -18830,7 +18886,7 @@
       <c r="AA566" s="5"/>
       <c r="AB566" s="5"/>
     </row>
-    <row r="567" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -18860,7 +18916,7 @@
       <c r="AA567" s="5"/>
       <c r="AB567" s="5"/>
     </row>
-    <row r="568" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -18890,7 +18946,7 @@
       <c r="AA568" s="5"/>
       <c r="AB568" s="5"/>
     </row>
-    <row r="569" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -18920,7 +18976,7 @@
       <c r="AA569" s="5"/>
       <c r="AB569" s="5"/>
     </row>
-    <row r="570" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -18950,7 +19006,7 @@
       <c r="AA570" s="5"/>
       <c r="AB570" s="5"/>
     </row>
-    <row r="571" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -18980,7 +19036,7 @@
       <c r="AA571" s="5"/>
       <c r="AB571" s="5"/>
     </row>
-    <row r="572" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -19010,7 +19066,7 @@
       <c r="AA572" s="5"/>
       <c r="AB572" s="5"/>
     </row>
-    <row r="573" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -19040,7 +19096,7 @@
       <c r="AA573" s="5"/>
       <c r="AB573" s="5"/>
     </row>
-    <row r="574" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -19070,7 +19126,7 @@
       <c r="AA574" s="5"/>
       <c r="AB574" s="5"/>
     </row>
-    <row r="575" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -19100,7 +19156,7 @@
       <c r="AA575" s="5"/>
       <c r="AB575" s="5"/>
     </row>
-    <row r="576" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -19130,7 +19186,7 @@
       <c r="AA576" s="5"/>
       <c r="AB576" s="5"/>
     </row>
-    <row r="577" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -19160,7 +19216,7 @@
       <c r="AA577" s="5"/>
       <c r="AB577" s="5"/>
     </row>
-    <row r="578" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -19190,7 +19246,7 @@
       <c r="AA578" s="5"/>
       <c r="AB578" s="5"/>
     </row>
-    <row r="579" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -19220,7 +19276,7 @@
       <c r="AA579" s="5"/>
       <c r="AB579" s="5"/>
     </row>
-    <row r="580" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -19250,7 +19306,7 @@
       <c r="AA580" s="5"/>
       <c r="AB580" s="5"/>
     </row>
-    <row r="581" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -19280,7 +19336,7 @@
       <c r="AA581" s="5"/>
       <c r="AB581" s="5"/>
     </row>
-    <row r="582" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -19310,7 +19366,7 @@
       <c r="AA582" s="5"/>
       <c r="AB582" s="5"/>
     </row>
-    <row r="583" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -19340,7 +19396,7 @@
       <c r="AA583" s="5"/>
       <c r="AB583" s="5"/>
     </row>
-    <row r="584" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -19370,7 +19426,7 @@
       <c r="AA584" s="5"/>
       <c r="AB584" s="5"/>
     </row>
-    <row r="585" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -19400,7 +19456,7 @@
       <c r="AA585" s="5"/>
       <c r="AB585" s="5"/>
     </row>
-    <row r="586" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -19430,7 +19486,7 @@
       <c r="AA586" s="5"/>
       <c r="AB586" s="5"/>
     </row>
-    <row r="587" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -19460,7 +19516,7 @@
       <c r="AA587" s="5"/>
       <c r="AB587" s="5"/>
     </row>
-    <row r="588" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -19490,7 +19546,7 @@
       <c r="AA588" s="5"/>
       <c r="AB588" s="5"/>
     </row>
-    <row r="589" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -19520,7 +19576,7 @@
       <c r="AA589" s="5"/>
       <c r="AB589" s="5"/>
     </row>
-    <row r="590" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -19550,7 +19606,7 @@
       <c r="AA590" s="5"/>
       <c r="AB590" s="5"/>
     </row>
-    <row r="591" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -19580,7 +19636,7 @@
       <c r="AA591" s="5"/>
       <c r="AB591" s="5"/>
     </row>
-    <row r="592" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -19610,7 +19666,7 @@
       <c r="AA592" s="5"/>
       <c r="AB592" s="5"/>
     </row>
-    <row r="593" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -19640,7 +19696,7 @@
       <c r="AA593" s="5"/>
       <c r="AB593" s="5"/>
     </row>
-    <row r="594" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -19670,7 +19726,7 @@
       <c r="AA594" s="5"/>
       <c r="AB594" s="5"/>
     </row>
-    <row r="595" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -19700,7 +19756,7 @@
       <c r="AA595" s="5"/>
       <c r="AB595" s="5"/>
     </row>
-    <row r="596" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -19730,7 +19786,7 @@
       <c r="AA596" s="5"/>
       <c r="AB596" s="5"/>
     </row>
-    <row r="597" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -19760,7 +19816,7 @@
       <c r="AA597" s="5"/>
       <c r="AB597" s="5"/>
     </row>
-    <row r="598" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -19790,7 +19846,7 @@
       <c r="AA598" s="5"/>
       <c r="AB598" s="5"/>
     </row>
-    <row r="599" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -19820,7 +19876,7 @@
       <c r="AA599" s="5"/>
       <c r="AB599" s="5"/>
     </row>
-    <row r="600" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -19850,7 +19906,7 @@
       <c r="AA600" s="5"/>
       <c r="AB600" s="5"/>
     </row>
-    <row r="601" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -19880,7 +19936,7 @@
       <c r="AA601" s="5"/>
       <c r="AB601" s="5"/>
     </row>
-    <row r="602" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -19910,7 +19966,7 @@
       <c r="AA602" s="5"/>
       <c r="AB602" s="5"/>
     </row>
-    <row r="603" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -19940,7 +19996,7 @@
       <c r="AA603" s="5"/>
       <c r="AB603" s="5"/>
     </row>
-    <row r="604" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -19970,7 +20026,7 @@
       <c r="AA604" s="5"/>
       <c r="AB604" s="5"/>
     </row>
-    <row r="605" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -20000,7 +20056,7 @@
       <c r="AA605" s="5"/>
       <c r="AB605" s="5"/>
     </row>
-    <row r="606" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -20030,7 +20086,7 @@
       <c r="AA606" s="5"/>
       <c r="AB606" s="5"/>
     </row>
-    <row r="607" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -20060,7 +20116,7 @@
       <c r="AA607" s="5"/>
       <c r="AB607" s="5"/>
     </row>
-    <row r="608" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -20090,7 +20146,7 @@
       <c r="AA608" s="5"/>
       <c r="AB608" s="5"/>
     </row>
-    <row r="609" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -20120,7 +20176,7 @@
       <c r="AA609" s="5"/>
       <c r="AB609" s="5"/>
     </row>
-    <row r="610" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -20150,7 +20206,7 @@
       <c r="AA610" s="5"/>
       <c r="AB610" s="5"/>
     </row>
-    <row r="611" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -20180,7 +20236,7 @@
       <c r="AA611" s="5"/>
       <c r="AB611" s="5"/>
     </row>
-    <row r="612" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -20210,7 +20266,7 @@
       <c r="AA612" s="5"/>
       <c r="AB612" s="5"/>
     </row>
-    <row r="613" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -20240,7 +20296,7 @@
       <c r="AA613" s="5"/>
       <c r="AB613" s="5"/>
     </row>
-    <row r="614" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -20270,7 +20326,7 @@
       <c r="AA614" s="5"/>
       <c r="AB614" s="5"/>
     </row>
-    <row r="615" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -20300,7 +20356,7 @@
       <c r="AA615" s="5"/>
       <c r="AB615" s="5"/>
     </row>
-    <row r="616" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -20330,7 +20386,7 @@
       <c r="AA616" s="5"/>
       <c r="AB616" s="5"/>
     </row>
-    <row r="617" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -20360,7 +20416,7 @@
       <c r="AA617" s="5"/>
       <c r="AB617" s="5"/>
     </row>
-    <row r="618" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -20390,7 +20446,7 @@
       <c r="AA618" s="5"/>
       <c r="AB618" s="5"/>
     </row>
-    <row r="619" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -20420,7 +20476,7 @@
       <c r="AA619" s="5"/>
       <c r="AB619" s="5"/>
     </row>
-    <row r="620" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -20450,7 +20506,7 @@
       <c r="AA620" s="5"/>
       <c r="AB620" s="5"/>
     </row>
-    <row r="621" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -20480,7 +20536,7 @@
       <c r="AA621" s="5"/>
       <c r="AB621" s="5"/>
     </row>
-    <row r="622" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -20510,7 +20566,7 @@
       <c r="AA622" s="5"/>
       <c r="AB622" s="5"/>
     </row>
-    <row r="623" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -20540,7 +20596,7 @@
       <c r="AA623" s="5"/>
       <c r="AB623" s="5"/>
     </row>
-    <row r="624" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -20570,7 +20626,7 @@
       <c r="AA624" s="5"/>
       <c r="AB624" s="5"/>
     </row>
-    <row r="625" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -20600,7 +20656,7 @@
       <c r="AA625" s="5"/>
       <c r="AB625" s="5"/>
     </row>
-    <row r="626" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -20630,7 +20686,7 @@
       <c r="AA626" s="5"/>
       <c r="AB626" s="5"/>
     </row>
-    <row r="627" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -20660,7 +20716,7 @@
       <c r="AA627" s="5"/>
       <c r="AB627" s="5"/>
     </row>
-    <row r="628" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -20690,7 +20746,7 @@
       <c r="AA628" s="5"/>
       <c r="AB628" s="5"/>
     </row>
-    <row r="629" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -20720,7 +20776,7 @@
       <c r="AA629" s="5"/>
       <c r="AB629" s="5"/>
     </row>
-    <row r="630" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -20750,7 +20806,7 @@
       <c r="AA630" s="5"/>
       <c r="AB630" s="5"/>
     </row>
-    <row r="631" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -20780,7 +20836,7 @@
       <c r="AA631" s="5"/>
       <c r="AB631" s="5"/>
     </row>
-    <row r="632" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -20810,7 +20866,7 @@
       <c r="AA632" s="5"/>
       <c r="AB632" s="5"/>
     </row>
-    <row r="633" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -20840,7 +20896,7 @@
       <c r="AA633" s="5"/>
       <c r="AB633" s="5"/>
     </row>
-    <row r="634" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -20870,7 +20926,7 @@
       <c r="AA634" s="5"/>
       <c r="AB634" s="5"/>
     </row>
-    <row r="635" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -20900,7 +20956,7 @@
       <c r="AA635" s="5"/>
       <c r="AB635" s="5"/>
     </row>
-    <row r="636" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -20930,7 +20986,7 @@
       <c r="AA636" s="5"/>
       <c r="AB636" s="5"/>
     </row>
-    <row r="637" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -20960,7 +21016,7 @@
       <c r="AA637" s="5"/>
       <c r="AB637" s="5"/>
     </row>
-    <row r="638" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -20990,7 +21046,7 @@
       <c r="AA638" s="5"/>
       <c r="AB638" s="5"/>
     </row>
-    <row r="639" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -21020,7 +21076,7 @@
       <c r="AA639" s="5"/>
       <c r="AB639" s="5"/>
     </row>
-    <row r="640" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -21050,7 +21106,7 @@
       <c r="AA640" s="5"/>
       <c r="AB640" s="5"/>
     </row>
-    <row r="641" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -21080,7 +21136,7 @@
       <c r="AA641" s="5"/>
       <c r="AB641" s="5"/>
     </row>
-    <row r="642" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -21110,7 +21166,7 @@
       <c r="AA642" s="5"/>
       <c r="AB642" s="5"/>
     </row>
-    <row r="643" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -21140,7 +21196,7 @@
       <c r="AA643" s="5"/>
       <c r="AB643" s="5"/>
     </row>
-    <row r="644" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -21170,7 +21226,7 @@
       <c r="AA644" s="5"/>
       <c r="AB644" s="5"/>
     </row>
-    <row r="645" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -21200,7 +21256,7 @@
       <c r="AA645" s="5"/>
       <c r="AB645" s="5"/>
     </row>
-    <row r="646" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -21230,7 +21286,7 @@
       <c r="AA646" s="5"/>
       <c r="AB646" s="5"/>
     </row>
-    <row r="647" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -21260,7 +21316,7 @@
       <c r="AA647" s="5"/>
       <c r="AB647" s="5"/>
     </row>
-    <row r="648" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -21290,7 +21346,7 @@
       <c r="AA648" s="5"/>
       <c r="AB648" s="5"/>
     </row>
-    <row r="649" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -21320,7 +21376,7 @@
       <c r="AA649" s="5"/>
       <c r="AB649" s="5"/>
     </row>
-    <row r="650" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -21350,7 +21406,7 @@
       <c r="AA650" s="5"/>
       <c r="AB650" s="5"/>
     </row>
-    <row r="651" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -21380,7 +21436,7 @@
       <c r="AA651" s="5"/>
       <c r="AB651" s="5"/>
     </row>
-    <row r="652" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -21410,7 +21466,7 @@
       <c r="AA652" s="5"/>
       <c r="AB652" s="5"/>
     </row>
-    <row r="653" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -21440,7 +21496,7 @@
       <c r="AA653" s="5"/>
       <c r="AB653" s="5"/>
     </row>
-    <row r="654" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -21470,7 +21526,7 @@
       <c r="AA654" s="5"/>
       <c r="AB654" s="5"/>
     </row>
-    <row r="655" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -21500,7 +21556,7 @@
       <c r="AA655" s="5"/>
       <c r="AB655" s="5"/>
     </row>
-    <row r="656" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -21530,7 +21586,7 @@
       <c r="AA656" s="5"/>
       <c r="AB656" s="5"/>
     </row>
-    <row r="657" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -21560,7 +21616,7 @@
       <c r="AA657" s="5"/>
       <c r="AB657" s="5"/>
     </row>
-    <row r="658" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -21590,7 +21646,7 @@
       <c r="AA658" s="5"/>
       <c r="AB658" s="5"/>
     </row>
-    <row r="659" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -21620,7 +21676,7 @@
       <c r="AA659" s="5"/>
       <c r="AB659" s="5"/>
     </row>
-    <row r="660" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -21650,7 +21706,7 @@
       <c r="AA660" s="5"/>
       <c r="AB660" s="5"/>
     </row>
-    <row r="661" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -21680,7 +21736,7 @@
       <c r="AA661" s="5"/>
       <c r="AB661" s="5"/>
     </row>
-    <row r="662" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -21710,7 +21766,7 @@
       <c r="AA662" s="5"/>
       <c r="AB662" s="5"/>
     </row>
-    <row r="663" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -21740,7 +21796,7 @@
       <c r="AA663" s="5"/>
       <c r="AB663" s="5"/>
     </row>
-    <row r="664" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -21770,7 +21826,7 @@
       <c r="AA664" s="5"/>
       <c r="AB664" s="5"/>
     </row>
-    <row r="665" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -21800,7 +21856,7 @@
       <c r="AA665" s="5"/>
       <c r="AB665" s="5"/>
     </row>
-    <row r="666" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -21830,7 +21886,7 @@
       <c r="AA666" s="5"/>
       <c r="AB666" s="5"/>
     </row>
-    <row r="667" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -21860,7 +21916,7 @@
       <c r="AA667" s="5"/>
       <c r="AB667" s="5"/>
     </row>
-    <row r="668" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -21890,7 +21946,7 @@
       <c r="AA668" s="5"/>
       <c r="AB668" s="5"/>
     </row>
-    <row r="669" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -21920,7 +21976,7 @@
       <c r="AA669" s="5"/>
       <c r="AB669" s="5"/>
     </row>
-    <row r="670" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -21950,7 +22006,7 @@
       <c r="AA670" s="5"/>
       <c r="AB670" s="5"/>
     </row>
-    <row r="671" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -21980,7 +22036,7 @@
       <c r="AA671" s="5"/>
       <c r="AB671" s="5"/>
     </row>
-    <row r="672" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -22010,7 +22066,7 @@
       <c r="AA672" s="5"/>
       <c r="AB672" s="5"/>
     </row>
-    <row r="673" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -22040,7 +22096,7 @@
       <c r="AA673" s="5"/>
       <c r="AB673" s="5"/>
     </row>
-    <row r="674" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -22070,7 +22126,7 @@
       <c r="AA674" s="5"/>
       <c r="AB674" s="5"/>
     </row>
-    <row r="675" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -22100,7 +22156,7 @@
       <c r="AA675" s="5"/>
       <c r="AB675" s="5"/>
     </row>
-    <row r="676" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -22130,7 +22186,7 @@
       <c r="AA676" s="5"/>
       <c r="AB676" s="5"/>
     </row>
-    <row r="677" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -22160,7 +22216,7 @@
       <c r="AA677" s="5"/>
       <c r="AB677" s="5"/>
     </row>
-    <row r="678" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -22190,7 +22246,7 @@
       <c r="AA678" s="5"/>
       <c r="AB678" s="5"/>
     </row>
-    <row r="679" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -22220,7 +22276,7 @@
       <c r="AA679" s="5"/>
       <c r="AB679" s="5"/>
     </row>
-    <row r="680" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -22250,7 +22306,7 @@
       <c r="AA680" s="5"/>
       <c r="AB680" s="5"/>
     </row>
-    <row r="681" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -22280,7 +22336,7 @@
       <c r="AA681" s="5"/>
       <c r="AB681" s="5"/>
     </row>
-    <row r="682" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -22310,7 +22366,7 @@
       <c r="AA682" s="5"/>
       <c r="AB682" s="5"/>
     </row>
-    <row r="683" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -22340,7 +22396,7 @@
       <c r="AA683" s="5"/>
       <c r="AB683" s="5"/>
     </row>
-    <row r="684" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -22370,7 +22426,7 @@
       <c r="AA684" s="5"/>
       <c r="AB684" s="5"/>
     </row>
-    <row r="685" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -22400,7 +22456,7 @@
       <c r="AA685" s="5"/>
       <c r="AB685" s="5"/>
     </row>
-    <row r="686" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -22430,7 +22486,7 @@
       <c r="AA686" s="5"/>
       <c r="AB686" s="5"/>
     </row>
-    <row r="687" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -22460,7 +22516,7 @@
       <c r="AA687" s="5"/>
       <c r="AB687" s="5"/>
     </row>
-    <row r="688" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -22490,7 +22546,7 @@
       <c r="AA688" s="5"/>
       <c r="AB688" s="5"/>
     </row>
-    <row r="689" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -22520,7 +22576,7 @@
       <c r="AA689" s="5"/>
       <c r="AB689" s="5"/>
     </row>
-    <row r="690" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -22550,7 +22606,7 @@
       <c r="AA690" s="5"/>
       <c r="AB690" s="5"/>
     </row>
-    <row r="691" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -22580,7 +22636,7 @@
       <c r="AA691" s="5"/>
       <c r="AB691" s="5"/>
     </row>
-    <row r="692" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -22610,7 +22666,7 @@
       <c r="AA692" s="5"/>
       <c r="AB692" s="5"/>
     </row>
-    <row r="693" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -22640,7 +22696,7 @@
       <c r="AA693" s="5"/>
       <c r="AB693" s="5"/>
     </row>
-    <row r="694" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -22670,7 +22726,7 @@
       <c r="AA694" s="5"/>
       <c r="AB694" s="5"/>
     </row>
-    <row r="695" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -22700,7 +22756,7 @@
       <c r="AA695" s="5"/>
       <c r="AB695" s="5"/>
     </row>
-    <row r="696" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -22730,7 +22786,7 @@
       <c r="AA696" s="5"/>
       <c r="AB696" s="5"/>
     </row>
-    <row r="697" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -22760,7 +22816,7 @@
       <c r="AA697" s="5"/>
       <c r="AB697" s="5"/>
     </row>
-    <row r="698" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -22790,7 +22846,7 @@
       <c r="AA698" s="5"/>
       <c r="AB698" s="5"/>
     </row>
-    <row r="699" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -22820,7 +22876,7 @@
       <c r="AA699" s="5"/>
       <c r="AB699" s="5"/>
     </row>
-    <row r="700" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -22850,7 +22906,7 @@
       <c r="AA700" s="5"/>
       <c r="AB700" s="5"/>
     </row>
-    <row r="701" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -22880,7 +22936,7 @@
       <c r="AA701" s="5"/>
       <c r="AB701" s="5"/>
     </row>
-    <row r="702" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -22910,7 +22966,7 @@
       <c r="AA702" s="5"/>
       <c r="AB702" s="5"/>
     </row>
-    <row r="703" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -22940,7 +22996,7 @@
       <c r="AA703" s="5"/>
       <c r="AB703" s="5"/>
     </row>
-    <row r="704" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -22970,7 +23026,7 @@
       <c r="AA704" s="5"/>
       <c r="AB704" s="5"/>
     </row>
-    <row r="705" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -23000,7 +23056,7 @@
       <c r="AA705" s="5"/>
       <c r="AB705" s="5"/>
     </row>
-    <row r="706" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -23030,7 +23086,7 @@
       <c r="AA706" s="5"/>
       <c r="AB706" s="5"/>
     </row>
-    <row r="707" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -23060,7 +23116,7 @@
       <c r="AA707" s="5"/>
       <c r="AB707" s="5"/>
     </row>
-    <row r="708" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -23090,7 +23146,7 @@
       <c r="AA708" s="5"/>
       <c r="AB708" s="5"/>
     </row>
-    <row r="709" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -23120,7 +23176,7 @@
       <c r="AA709" s="5"/>
       <c r="AB709" s="5"/>
     </row>
-    <row r="710" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -23150,7 +23206,7 @@
       <c r="AA710" s="5"/>
       <c r="AB710" s="5"/>
     </row>
-    <row r="711" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -23180,7 +23236,7 @@
       <c r="AA711" s="5"/>
       <c r="AB711" s="5"/>
     </row>
-    <row r="712" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -23210,7 +23266,7 @@
       <c r="AA712" s="5"/>
       <c r="AB712" s="5"/>
     </row>
-    <row r="713" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -23240,7 +23296,7 @@
       <c r="AA713" s="5"/>
       <c r="AB713" s="5"/>
     </row>
-    <row r="714" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -23270,7 +23326,7 @@
       <c r="AA714" s="5"/>
       <c r="AB714" s="5"/>
     </row>
-    <row r="715" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -23300,7 +23356,7 @@
       <c r="AA715" s="5"/>
       <c r="AB715" s="5"/>
     </row>
-    <row r="716" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -23330,7 +23386,7 @@
       <c r="AA716" s="5"/>
       <c r="AB716" s="5"/>
     </row>
-    <row r="717" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -23360,7 +23416,7 @@
       <c r="AA717" s="5"/>
       <c r="AB717" s="5"/>
     </row>
-    <row r="718" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -23390,7 +23446,7 @@
       <c r="AA718" s="5"/>
       <c r="AB718" s="5"/>
     </row>
-    <row r="719" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -23420,7 +23476,7 @@
       <c r="AA719" s="5"/>
       <c r="AB719" s="5"/>
     </row>
-    <row r="720" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -23450,7 +23506,7 @@
       <c r="AA720" s="5"/>
       <c r="AB720" s="5"/>
     </row>
-    <row r="721" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -23480,7 +23536,7 @@
       <c r="AA721" s="5"/>
       <c r="AB721" s="5"/>
     </row>
-    <row r="722" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -23510,7 +23566,7 @@
       <c r="AA722" s="5"/>
       <c r="AB722" s="5"/>
     </row>
-    <row r="723" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -23540,7 +23596,7 @@
       <c r="AA723" s="5"/>
       <c r="AB723" s="5"/>
     </row>
-    <row r="724" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -23570,7 +23626,7 @@
       <c r="AA724" s="5"/>
       <c r="AB724" s="5"/>
     </row>
-    <row r="725" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -23600,7 +23656,7 @@
       <c r="AA725" s="5"/>
       <c r="AB725" s="5"/>
     </row>
-    <row r="726" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -23630,7 +23686,7 @@
       <c r="AA726" s="5"/>
       <c r="AB726" s="5"/>
     </row>
-    <row r="727" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -23660,7 +23716,7 @@
       <c r="AA727" s="5"/>
       <c r="AB727" s="5"/>
     </row>
-    <row r="728" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -23690,7 +23746,7 @@
       <c r="AA728" s="5"/>
       <c r="AB728" s="5"/>
     </row>
-    <row r="729" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -23720,7 +23776,7 @@
       <c r="AA729" s="5"/>
       <c r="AB729" s="5"/>
     </row>
-    <row r="730" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -23750,7 +23806,7 @@
       <c r="AA730" s="5"/>
       <c r="AB730" s="5"/>
     </row>
-    <row r="731" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -23780,7 +23836,7 @@
       <c r="AA731" s="5"/>
       <c r="AB731" s="5"/>
     </row>
-    <row r="732" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -23810,7 +23866,7 @@
       <c r="AA732" s="5"/>
       <c r="AB732" s="5"/>
     </row>
-    <row r="733" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -23840,7 +23896,7 @@
       <c r="AA733" s="5"/>
       <c r="AB733" s="5"/>
     </row>
-    <row r="734" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -23870,7 +23926,7 @@
       <c r="AA734" s="5"/>
       <c r="AB734" s="5"/>
     </row>
-    <row r="735" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -23900,7 +23956,7 @@
       <c r="AA735" s="5"/>
       <c r="AB735" s="5"/>
     </row>
-    <row r="736" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -23930,7 +23986,7 @@
       <c r="AA736" s="5"/>
       <c r="AB736" s="5"/>
     </row>
-    <row r="737" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -23960,7 +24016,7 @@
       <c r="AA737" s="5"/>
       <c r="AB737" s="5"/>
     </row>
-    <row r="738" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -23990,7 +24046,7 @@
       <c r="AA738" s="5"/>
       <c r="AB738" s="5"/>
     </row>
-    <row r="739" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -24020,7 +24076,7 @@
       <c r="AA739" s="5"/>
       <c r="AB739" s="5"/>
     </row>
-    <row r="740" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -24050,7 +24106,7 @@
       <c r="AA740" s="5"/>
       <c r="AB740" s="5"/>
     </row>
-    <row r="741" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -24080,7 +24136,7 @@
       <c r="AA741" s="5"/>
       <c r="AB741" s="5"/>
     </row>
-    <row r="742" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -24110,7 +24166,7 @@
       <c r="AA742" s="5"/>
       <c r="AB742" s="5"/>
     </row>
-    <row r="743" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -24140,7 +24196,7 @@
       <c r="AA743" s="5"/>
       <c r="AB743" s="5"/>
     </row>
-    <row r="744" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -24170,7 +24226,7 @@
       <c r="AA744" s="5"/>
       <c r="AB744" s="5"/>
     </row>
-    <row r="745" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -24200,7 +24256,7 @@
       <c r="AA745" s="5"/>
       <c r="AB745" s="5"/>
     </row>
-    <row r="746" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -24230,7 +24286,7 @@
       <c r="AA746" s="5"/>
       <c r="AB746" s="5"/>
     </row>
-    <row r="747" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -24260,7 +24316,7 @@
       <c r="AA747" s="5"/>
       <c r="AB747" s="5"/>
     </row>
-    <row r="748" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -24290,7 +24346,7 @@
       <c r="AA748" s="5"/>
       <c r="AB748" s="5"/>
     </row>
-    <row r="749" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -24320,7 +24376,7 @@
       <c r="AA749" s="5"/>
       <c r="AB749" s="5"/>
     </row>
-    <row r="750" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -24350,7 +24406,7 @@
       <c r="AA750" s="5"/>
       <c r="AB750" s="5"/>
     </row>
-    <row r="751" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -24380,7 +24436,7 @@
       <c r="AA751" s="5"/>
       <c r="AB751" s="5"/>
     </row>
-    <row r="752" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -24410,7 +24466,7 @@
       <c r="AA752" s="5"/>
       <c r="AB752" s="5"/>
     </row>
-    <row r="753" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -24440,7 +24496,7 @@
       <c r="AA753" s="5"/>
       <c r="AB753" s="5"/>
     </row>
-    <row r="754" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -24470,7 +24526,7 @@
       <c r="AA754" s="5"/>
       <c r="AB754" s="5"/>
     </row>
-    <row r="755" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -24500,7 +24556,7 @@
       <c r="AA755" s="5"/>
       <c r="AB755" s="5"/>
     </row>
-    <row r="756" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -24530,7 +24586,7 @@
       <c r="AA756" s="5"/>
       <c r="AB756" s="5"/>
     </row>
-    <row r="757" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -24560,7 +24616,7 @@
       <c r="AA757" s="5"/>
       <c r="AB757" s="5"/>
     </row>
-    <row r="758" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -24590,7 +24646,7 @@
       <c r="AA758" s="5"/>
       <c r="AB758" s="5"/>
     </row>
-    <row r="759" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -24620,7 +24676,7 @@
       <c r="AA759" s="5"/>
       <c r="AB759" s="5"/>
     </row>
-    <row r="760" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -24650,7 +24706,7 @@
       <c r="AA760" s="5"/>
       <c r="AB760" s="5"/>
     </row>
-    <row r="761" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -24680,7 +24736,7 @@
       <c r="AA761" s="5"/>
       <c r="AB761" s="5"/>
     </row>
-    <row r="762" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -24710,7 +24766,7 @@
       <c r="AA762" s="5"/>
       <c r="AB762" s="5"/>
     </row>
-    <row r="763" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -24740,7 +24796,7 @@
       <c r="AA763" s="5"/>
       <c r="AB763" s="5"/>
     </row>
-    <row r="764" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -24770,7 +24826,7 @@
       <c r="AA764" s="5"/>
       <c r="AB764" s="5"/>
     </row>
-    <row r="765" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -24800,7 +24856,7 @@
       <c r="AA765" s="5"/>
       <c r="AB765" s="5"/>
     </row>
-    <row r="766" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -24830,7 +24886,7 @@
       <c r="AA766" s="5"/>
       <c r="AB766" s="5"/>
     </row>
-    <row r="767" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -24860,7 +24916,7 @@
       <c r="AA767" s="5"/>
       <c r="AB767" s="5"/>
     </row>
-    <row r="768" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -24890,7 +24946,7 @@
       <c r="AA768" s="5"/>
       <c r="AB768" s="5"/>
     </row>
-    <row r="769" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -24920,7 +24976,7 @@
       <c r="AA769" s="5"/>
       <c r="AB769" s="5"/>
     </row>
-    <row r="770" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -24950,7 +25006,7 @@
       <c r="AA770" s="5"/>
       <c r="AB770" s="5"/>
     </row>
-    <row r="771" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -24980,7 +25036,7 @@
       <c r="AA771" s="5"/>
       <c r="AB771" s="5"/>
     </row>
-    <row r="772" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -25010,7 +25066,7 @@
       <c r="AA772" s="5"/>
       <c r="AB772" s="5"/>
     </row>
-    <row r="773" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -25040,7 +25096,7 @@
       <c r="AA773" s="5"/>
       <c r="AB773" s="5"/>
     </row>
-    <row r="774" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -25070,7 +25126,7 @@
       <c r="AA774" s="5"/>
       <c r="AB774" s="5"/>
     </row>
-    <row r="775" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -25100,7 +25156,7 @@
       <c r="AA775" s="5"/>
       <c r="AB775" s="5"/>
     </row>
-    <row r="776" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -25130,7 +25186,7 @@
       <c r="AA776" s="5"/>
       <c r="AB776" s="5"/>
     </row>
-    <row r="777" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -25160,7 +25216,7 @@
       <c r="AA777" s="5"/>
       <c r="AB777" s="5"/>
     </row>
-    <row r="778" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -25190,7 +25246,7 @@
       <c r="AA778" s="5"/>
       <c r="AB778" s="5"/>
     </row>
-    <row r="779" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -25220,7 +25276,7 @@
       <c r="AA779" s="5"/>
       <c r="AB779" s="5"/>
     </row>
-    <row r="780" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -25250,7 +25306,7 @@
       <c r="AA780" s="5"/>
       <c r="AB780" s="5"/>
     </row>
-    <row r="781" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -25280,7 +25336,7 @@
       <c r="AA781" s="5"/>
       <c r="AB781" s="5"/>
     </row>
-    <row r="782" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -25310,7 +25366,7 @@
       <c r="AA782" s="5"/>
       <c r="AB782" s="5"/>
     </row>
-    <row r="783" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -25340,7 +25396,7 @@
       <c r="AA783" s="5"/>
       <c r="AB783" s="5"/>
     </row>
-    <row r="784" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -25370,7 +25426,7 @@
       <c r="AA784" s="5"/>
       <c r="AB784" s="5"/>
     </row>
-    <row r="785" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -25400,7 +25456,7 @@
       <c r="AA785" s="5"/>
       <c r="AB785" s="5"/>
     </row>
-    <row r="786" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -25430,7 +25486,7 @@
       <c r="AA786" s="5"/>
       <c r="AB786" s="5"/>
     </row>
-    <row r="787" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -25460,7 +25516,7 @@
       <c r="AA787" s="5"/>
       <c r="AB787" s="5"/>
     </row>
-    <row r="788" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -25490,7 +25546,7 @@
       <c r="AA788" s="5"/>
       <c r="AB788" s="5"/>
     </row>
-    <row r="789" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -25520,7 +25576,7 @@
       <c r="AA789" s="5"/>
       <c r="AB789" s="5"/>
     </row>
-    <row r="790" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -25550,7 +25606,7 @@
       <c r="AA790" s="5"/>
       <c r="AB790" s="5"/>
     </row>
-    <row r="791" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -25580,7 +25636,7 @@
       <c r="AA791" s="5"/>
       <c r="AB791" s="5"/>
     </row>
-    <row r="792" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -25610,7 +25666,7 @@
       <c r="AA792" s="5"/>
       <c r="AB792" s="5"/>
     </row>
-    <row r="793" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -25640,7 +25696,7 @@
       <c r="AA793" s="5"/>
       <c r="AB793" s="5"/>
     </row>
-    <row r="794" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -25670,7 +25726,7 @@
       <c r="AA794" s="5"/>
       <c r="AB794" s="5"/>
     </row>
-    <row r="795" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -25700,7 +25756,7 @@
       <c r="AA795" s="5"/>
       <c r="AB795" s="5"/>
     </row>
-    <row r="796" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -25730,7 +25786,7 @@
       <c r="AA796" s="5"/>
       <c r="AB796" s="5"/>
     </row>
-    <row r="797" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -25760,7 +25816,7 @@
       <c r="AA797" s="5"/>
       <c r="AB797" s="5"/>
     </row>
-    <row r="798" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -25790,7 +25846,7 @@
       <c r="AA798" s="5"/>
       <c r="AB798" s="5"/>
     </row>
-    <row r="799" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -25820,7 +25876,7 @@
       <c r="AA799" s="5"/>
       <c r="AB799" s="5"/>
     </row>
-    <row r="800" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -25850,7 +25906,7 @@
       <c r="AA800" s="5"/>
       <c r="AB800" s="5"/>
     </row>
-    <row r="801" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -25880,7 +25936,7 @@
       <c r="AA801" s="5"/>
       <c r="AB801" s="5"/>
     </row>
-    <row r="802" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -25910,7 +25966,7 @@
       <c r="AA802" s="5"/>
       <c r="AB802" s="5"/>
     </row>
-    <row r="803" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -25940,7 +25996,7 @@
       <c r="AA803" s="5"/>
       <c r="AB803" s="5"/>
     </row>
-    <row r="804" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -25970,7 +26026,7 @@
       <c r="AA804" s="5"/>
       <c r="AB804" s="5"/>
     </row>
-    <row r="805" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -26000,7 +26056,7 @@
       <c r="AA805" s="5"/>
       <c r="AB805" s="5"/>
     </row>
-    <row r="806" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -26030,7 +26086,7 @@
       <c r="AA806" s="5"/>
       <c r="AB806" s="5"/>
     </row>
-    <row r="807" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -26060,7 +26116,7 @@
       <c r="AA807" s="5"/>
       <c r="AB807" s="5"/>
     </row>
-    <row r="808" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -26090,7 +26146,7 @@
       <c r="AA808" s="5"/>
       <c r="AB808" s="5"/>
     </row>
-    <row r="809" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -26120,7 +26176,7 @@
       <c r="AA809" s="5"/>
       <c r="AB809" s="5"/>
     </row>
-    <row r="810" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -26150,7 +26206,7 @@
       <c r="AA810" s="5"/>
       <c r="AB810" s="5"/>
     </row>
-    <row r="811" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -26180,7 +26236,7 @@
       <c r="AA811" s="5"/>
       <c r="AB811" s="5"/>
     </row>
-    <row r="812" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -26210,7 +26266,7 @@
       <c r="AA812" s="5"/>
       <c r="AB812" s="5"/>
     </row>
-    <row r="813" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -26240,7 +26296,7 @@
       <c r="AA813" s="5"/>
       <c r="AB813" s="5"/>
     </row>
-    <row r="814" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -26270,7 +26326,7 @@
       <c r="AA814" s="5"/>
       <c r="AB814" s="5"/>
     </row>
-    <row r="815" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -26300,7 +26356,7 @@
       <c r="AA815" s="5"/>
       <c r="AB815" s="5"/>
     </row>
-    <row r="816" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -26330,7 +26386,7 @@
       <c r="AA816" s="5"/>
       <c r="AB816" s="5"/>
     </row>
-    <row r="817" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -26360,7 +26416,7 @@
       <c r="AA817" s="5"/>
       <c r="AB817" s="5"/>
     </row>
-    <row r="818" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -26390,7 +26446,7 @@
       <c r="AA818" s="5"/>
       <c r="AB818" s="5"/>
     </row>
-    <row r="819" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -26420,7 +26476,7 @@
       <c r="AA819" s="5"/>
       <c r="AB819" s="5"/>
     </row>
-    <row r="820" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -26450,7 +26506,7 @@
       <c r="AA820" s="5"/>
       <c r="AB820" s="5"/>
     </row>
-    <row r="821" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -26480,7 +26536,7 @@
       <c r="AA821" s="5"/>
       <c r="AB821" s="5"/>
     </row>
-    <row r="822" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -26510,7 +26566,7 @@
       <c r="AA822" s="5"/>
       <c r="AB822" s="5"/>
     </row>
-    <row r="823" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -26540,7 +26596,7 @@
       <c r="AA823" s="5"/>
       <c r="AB823" s="5"/>
     </row>
-    <row r="824" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -26570,7 +26626,7 @@
       <c r="AA824" s="5"/>
       <c r="AB824" s="5"/>
     </row>
-    <row r="825" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -26600,7 +26656,7 @@
       <c r="AA825" s="5"/>
       <c r="AB825" s="5"/>
     </row>
-    <row r="826" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -26630,7 +26686,7 @@
       <c r="AA826" s="5"/>
       <c r="AB826" s="5"/>
     </row>
-    <row r="827" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -26660,7 +26716,7 @@
       <c r="AA827" s="5"/>
       <c r="AB827" s="5"/>
     </row>
-    <row r="828" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -26690,7 +26746,7 @@
       <c r="AA828" s="5"/>
       <c r="AB828" s="5"/>
     </row>
-    <row r="829" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -26720,7 +26776,7 @@
       <c r="AA829" s="5"/>
       <c r="AB829" s="5"/>
     </row>
-    <row r="830" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -26750,7 +26806,7 @@
       <c r="AA830" s="5"/>
       <c r="AB830" s="5"/>
     </row>
-    <row r="831" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -26780,7 +26836,7 @@
       <c r="AA831" s="5"/>
       <c r="AB831" s="5"/>
     </row>
-    <row r="832" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -26810,7 +26866,7 @@
       <c r="AA832" s="5"/>
       <c r="AB832" s="5"/>
     </row>
-    <row r="833" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -26840,7 +26896,7 @@
       <c r="AA833" s="5"/>
       <c r="AB833" s="5"/>
     </row>
-    <row r="834" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -26870,7 +26926,7 @@
       <c r="AA834" s="5"/>
       <c r="AB834" s="5"/>
     </row>
-    <row r="835" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -26900,7 +26956,7 @@
       <c r="AA835" s="5"/>
       <c r="AB835" s="5"/>
     </row>
-    <row r="836" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -26930,7 +26986,7 @@
       <c r="AA836" s="5"/>
       <c r="AB836" s="5"/>
     </row>
-    <row r="837" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -26960,7 +27016,7 @@
       <c r="AA837" s="5"/>
       <c r="AB837" s="5"/>
     </row>
-    <row r="838" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -26990,7 +27046,7 @@
       <c r="AA838" s="5"/>
       <c r="AB838" s="5"/>
     </row>
-    <row r="839" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -27020,7 +27076,7 @@
       <c r="AA839" s="5"/>
       <c r="AB839" s="5"/>
     </row>
-    <row r="840" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -27050,7 +27106,7 @@
       <c r="AA840" s="5"/>
       <c r="AB840" s="5"/>
     </row>
-    <row r="841" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -27080,7 +27136,7 @@
       <c r="AA841" s="5"/>
       <c r="AB841" s="5"/>
     </row>
-    <row r="842" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -27110,7 +27166,7 @@
       <c r="AA842" s="5"/>
       <c r="AB842" s="5"/>
     </row>
-    <row r="843" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -27140,7 +27196,7 @@
       <c r="AA843" s="5"/>
       <c r="AB843" s="5"/>
     </row>
-    <row r="844" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -27170,7 +27226,7 @@
       <c r="AA844" s="5"/>
       <c r="AB844" s="5"/>
     </row>
-    <row r="845" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -27200,7 +27256,7 @@
       <c r="AA845" s="5"/>
       <c r="AB845" s="5"/>
     </row>
-    <row r="846" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -27230,7 +27286,7 @@
       <c r="AA846" s="5"/>
       <c r="AB846" s="5"/>
     </row>
-    <row r="847" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -27260,7 +27316,7 @@
       <c r="AA847" s="5"/>
       <c r="AB847" s="5"/>
     </row>
-    <row r="848" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -27290,7 +27346,7 @@
       <c r="AA848" s="5"/>
       <c r="AB848" s="5"/>
     </row>
-    <row r="849" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -27320,7 +27376,7 @@
       <c r="AA849" s="5"/>
       <c r="AB849" s="5"/>
     </row>
-    <row r="850" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -27350,7 +27406,7 @@
       <c r="AA850" s="5"/>
       <c r="AB850" s="5"/>
     </row>
-    <row r="851" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -27380,7 +27436,7 @@
       <c r="AA851" s="5"/>
       <c r="AB851" s="5"/>
     </row>
-    <row r="852" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -27410,7 +27466,7 @@
       <c r="AA852" s="5"/>
       <c r="AB852" s="5"/>
     </row>
-    <row r="853" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -27440,7 +27496,7 @@
       <c r="AA853" s="5"/>
       <c r="AB853" s="5"/>
     </row>
-    <row r="854" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -27470,7 +27526,7 @@
       <c r="AA854" s="5"/>
       <c r="AB854" s="5"/>
     </row>
-    <row r="855" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -27500,7 +27556,7 @@
       <c r="AA855" s="5"/>
       <c r="AB855" s="5"/>
     </row>
-    <row r="856" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -27530,7 +27586,7 @@
       <c r="AA856" s="5"/>
       <c r="AB856" s="5"/>
     </row>
-    <row r="857" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -27560,7 +27616,7 @@
       <c r="AA857" s="5"/>
       <c r="AB857" s="5"/>
     </row>
-    <row r="858" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -27590,7 +27646,7 @@
       <c r="AA858" s="5"/>
       <c r="AB858" s="5"/>
     </row>
-    <row r="859" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -27620,7 +27676,7 @@
       <c r="AA859" s="5"/>
       <c r="AB859" s="5"/>
     </row>
-    <row r="860" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -27650,7 +27706,7 @@
       <c r="AA860" s="5"/>
       <c r="AB860" s="5"/>
     </row>
-    <row r="861" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -27680,7 +27736,7 @@
       <c r="AA861" s="5"/>
       <c r="AB861" s="5"/>
     </row>
-    <row r="862" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -27710,7 +27766,7 @@
       <c r="AA862" s="5"/>
       <c r="AB862" s="5"/>
     </row>
-    <row r="863" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -27740,7 +27796,7 @@
       <c r="AA863" s="5"/>
       <c r="AB863" s="5"/>
     </row>
-    <row r="864" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -27770,7 +27826,7 @@
       <c r="AA864" s="5"/>
       <c r="AB864" s="5"/>
     </row>
-    <row r="865" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -27800,7 +27856,7 @@
       <c r="AA865" s="5"/>
       <c r="AB865" s="5"/>
     </row>
-    <row r="866" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -27830,7 +27886,7 @@
       <c r="AA866" s="5"/>
       <c r="AB866" s="5"/>
     </row>
-    <row r="867" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -27860,7 +27916,7 @@
       <c r="AA867" s="5"/>
       <c r="AB867" s="5"/>
     </row>
-    <row r="868" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -27890,7 +27946,7 @@
       <c r="AA868" s="5"/>
       <c r="AB868" s="5"/>
     </row>
-    <row r="869" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -27920,7 +27976,7 @@
       <c r="AA869" s="5"/>
       <c r="AB869" s="5"/>
     </row>
-    <row r="870" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -27950,7 +28006,7 @@
       <c r="AA870" s="5"/>
       <c r="AB870" s="5"/>
     </row>
-    <row r="871" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -27980,7 +28036,7 @@
       <c r="AA871" s="5"/>
       <c r="AB871" s="5"/>
     </row>
-    <row r="872" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -28010,7 +28066,7 @@
       <c r="AA872" s="5"/>
       <c r="AB872" s="5"/>
     </row>
-    <row r="873" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -28040,7 +28096,7 @@
       <c r="AA873" s="5"/>
       <c r="AB873" s="5"/>
     </row>
-    <row r="874" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -28070,7 +28126,7 @@
       <c r="AA874" s="5"/>
       <c r="AB874" s="5"/>
     </row>
-    <row r="875" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -28100,7 +28156,7 @@
       <c r="AA875" s="5"/>
       <c r="AB875" s="5"/>
     </row>
-    <row r="876" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -28130,7 +28186,7 @@
       <c r="AA876" s="5"/>
       <c r="AB876" s="5"/>
     </row>
-    <row r="877" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -28160,7 +28216,7 @@
       <c r="AA877" s="5"/>
       <c r="AB877" s="5"/>
     </row>
-    <row r="878" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -28190,7 +28246,7 @@
       <c r="AA878" s="5"/>
       <c r="AB878" s="5"/>
     </row>
-    <row r="879" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -28220,7 +28276,7 @@
       <c r="AA879" s="5"/>
       <c r="AB879" s="5"/>
     </row>
-    <row r="880" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -28250,7 +28306,7 @@
       <c r="AA880" s="5"/>
       <c r="AB880" s="5"/>
     </row>
-    <row r="881" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -28280,7 +28336,7 @@
       <c r="AA881" s="5"/>
       <c r="AB881" s="5"/>
     </row>
-    <row r="882" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -28310,7 +28366,7 @@
       <c r="AA882" s="5"/>
       <c r="AB882" s="5"/>
     </row>
-    <row r="883" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -28340,7 +28396,7 @@
       <c r="AA883" s="5"/>
       <c r="AB883" s="5"/>
     </row>
-    <row r="884" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -28370,7 +28426,7 @@
       <c r="AA884" s="5"/>
       <c r="AB884" s="5"/>
     </row>
-    <row r="885" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -28400,7 +28456,7 @@
       <c r="AA885" s="5"/>
       <c r="AB885" s="5"/>
     </row>
-    <row r="886" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -28430,7 +28486,7 @@
       <c r="AA886" s="5"/>
       <c r="AB886" s="5"/>
     </row>
-    <row r="887" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -28460,7 +28516,7 @@
       <c r="AA887" s="5"/>
       <c r="AB887" s="5"/>
     </row>
-    <row r="888" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -28490,7 +28546,7 @@
       <c r="AA888" s="5"/>
       <c r="AB888" s="5"/>
     </row>
-    <row r="889" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -28520,7 +28576,7 @@
       <c r="AA889" s="5"/>
       <c r="AB889" s="5"/>
     </row>
-    <row r="890" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -28550,7 +28606,7 @@
       <c r="AA890" s="5"/>
       <c r="AB890" s="5"/>
     </row>
-    <row r="891" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -28580,7 +28636,7 @@
       <c r="AA891" s="5"/>
       <c r="AB891" s="5"/>
     </row>
-    <row r="892" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -28610,7 +28666,7 @@
       <c r="AA892" s="5"/>
       <c r="AB892" s="5"/>
     </row>
-    <row r="893" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -28640,7 +28696,7 @@
       <c r="AA893" s="5"/>
       <c r="AB893" s="5"/>
     </row>
-    <row r="894" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -28670,7 +28726,7 @@
       <c r="AA894" s="5"/>
       <c r="AB894" s="5"/>
     </row>
-    <row r="895" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -28700,7 +28756,7 @@
       <c r="AA895" s="5"/>
       <c r="AB895" s="5"/>
     </row>
-    <row r="896" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -28730,7 +28786,7 @@
       <c r="AA896" s="5"/>
       <c r="AB896" s="5"/>
     </row>
-    <row r="897" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -28760,7 +28816,7 @@
       <c r="AA897" s="5"/>
       <c r="AB897" s="5"/>
     </row>
-    <row r="898" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -28790,7 +28846,7 @@
       <c r="AA898" s="5"/>
       <c r="AB898" s="5"/>
     </row>
-    <row r="899" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -28820,7 +28876,7 @@
       <c r="AA899" s="5"/>
       <c r="AB899" s="5"/>
     </row>
-    <row r="900" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -28850,7 +28906,7 @@
       <c r="AA900" s="5"/>
       <c r="AB900" s="5"/>
     </row>
-    <row r="901" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -28880,7 +28936,7 @@
       <c r="AA901" s="5"/>
       <c r="AB901" s="5"/>
     </row>
-    <row r="902" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -28910,7 +28966,7 @@
       <c r="AA902" s="5"/>
       <c r="AB902" s="5"/>
     </row>
-    <row r="903" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -28940,7 +28996,7 @@
       <c r="AA903" s="5"/>
       <c r="AB903" s="5"/>
     </row>
-    <row r="904" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -28970,7 +29026,7 @@
       <c r="AA904" s="5"/>
       <c r="AB904" s="5"/>
     </row>
-    <row r="905" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -29000,7 +29056,7 @@
       <c r="AA905" s="5"/>
       <c r="AB905" s="5"/>
     </row>
-    <row r="906" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -29030,7 +29086,7 @@
       <c r="AA906" s="5"/>
       <c r="AB906" s="5"/>
     </row>
-    <row r="907" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -29060,7 +29116,7 @@
       <c r="AA907" s="5"/>
       <c r="AB907" s="5"/>
     </row>
-    <row r="908" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -29090,7 +29146,7 @@
       <c r="AA908" s="5"/>
       <c r="AB908" s="5"/>
     </row>
-    <row r="909" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -29120,7 +29176,7 @@
       <c r="AA909" s="5"/>
       <c r="AB909" s="5"/>
     </row>
-    <row r="910" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -29150,7 +29206,7 @@
       <c r="AA910" s="5"/>
       <c r="AB910" s="5"/>
     </row>
-    <row r="911" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -29180,7 +29236,7 @@
       <c r="AA911" s="5"/>
       <c r="AB911" s="5"/>
     </row>
-    <row r="912" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -29210,7 +29266,7 @@
       <c r="AA912" s="5"/>
       <c r="AB912" s="5"/>
     </row>
-    <row r="913" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -29240,7 +29296,7 @@
       <c r="AA913" s="5"/>
       <c r="AB913" s="5"/>
     </row>
-    <row r="914" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -29270,7 +29326,7 @@
       <c r="AA914" s="5"/>
       <c r="AB914" s="5"/>
     </row>
-    <row r="915" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -29300,7 +29356,7 @@
       <c r="AA915" s="5"/>
       <c r="AB915" s="5"/>
     </row>
-    <row r="916" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -29330,7 +29386,7 @@
       <c r="AA916" s="5"/>
       <c r="AB916" s="5"/>
     </row>
-    <row r="917" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -29360,7 +29416,7 @@
       <c r="AA917" s="5"/>
       <c r="AB917" s="5"/>
     </row>
-    <row r="918" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -29390,7 +29446,7 @@
       <c r="AA918" s="5"/>
       <c r="AB918" s="5"/>
     </row>
-    <row r="919" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -29420,7 +29476,7 @@
       <c r="AA919" s="5"/>
       <c r="AB919" s="5"/>
     </row>
-    <row r="920" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -29450,7 +29506,7 @@
       <c r="AA920" s="5"/>
       <c r="AB920" s="5"/>
     </row>
-    <row r="921" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -29480,7 +29536,7 @@
       <c r="AA921" s="5"/>
       <c r="AB921" s="5"/>
     </row>
-    <row r="922" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -29510,7 +29566,7 @@
       <c r="AA922" s="5"/>
       <c r="AB922" s="5"/>
     </row>
-    <row r="923" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -29540,7 +29596,7 @@
       <c r="AA923" s="5"/>
       <c r="AB923" s="5"/>
     </row>
-    <row r="924" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -29570,7 +29626,7 @@
       <c r="AA924" s="5"/>
       <c r="AB924" s="5"/>
     </row>
-    <row r="925" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -29600,7 +29656,7 @@
       <c r="AA925" s="5"/>
       <c r="AB925" s="5"/>
     </row>
-    <row r="926" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -29630,7 +29686,7 @@
       <c r="AA926" s="5"/>
       <c r="AB926" s="5"/>
     </row>
-    <row r="927" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -29660,7 +29716,7 @@
       <c r="AA927" s="5"/>
       <c r="AB927" s="5"/>
     </row>
-    <row r="928" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -29690,7 +29746,7 @@
       <c r="AA928" s="5"/>
       <c r="AB928" s="5"/>
     </row>
-    <row r="929" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -29720,7 +29776,7 @@
       <c r="AA929" s="5"/>
       <c r="AB929" s="5"/>
     </row>
-    <row r="930" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -29750,7 +29806,7 @@
       <c r="AA930" s="5"/>
       <c r="AB930" s="5"/>
     </row>
-    <row r="931" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -29780,7 +29836,7 @@
       <c r="AA931" s="5"/>
       <c r="AB931" s="5"/>
     </row>
-    <row r="932" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -29810,7 +29866,7 @@
       <c r="AA932" s="5"/>
       <c r="AB932" s="5"/>
     </row>
-    <row r="933" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -29840,7 +29896,7 @@
       <c r="AA933" s="5"/>
       <c r="AB933" s="5"/>
     </row>
-    <row r="934" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -29870,7 +29926,7 @@
       <c r="AA934" s="5"/>
       <c r="AB934" s="5"/>
     </row>
-    <row r="935" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -29900,7 +29956,7 @@
       <c r="AA935" s="5"/>
       <c r="AB935" s="5"/>
     </row>
-    <row r="936" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -29930,7 +29986,7 @@
       <c r="AA936" s="5"/>
       <c r="AB936" s="5"/>
     </row>
-    <row r="937" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -29960,7 +30016,7 @@
       <c r="AA937" s="5"/>
       <c r="AB937" s="5"/>
     </row>
-    <row r="938" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -29990,7 +30046,7 @@
       <c r="AA938" s="5"/>
       <c r="AB938" s="5"/>
     </row>
-    <row r="939" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -30020,7 +30076,7 @@
       <c r="AA939" s="5"/>
       <c r="AB939" s="5"/>
     </row>
-    <row r="940" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -30050,7 +30106,7 @@
       <c r="AA940" s="5"/>
       <c r="AB940" s="5"/>
     </row>
-    <row r="941" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -30080,7 +30136,7 @@
       <c r="AA941" s="5"/>
       <c r="AB941" s="5"/>
     </row>
-    <row r="942" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -30110,7 +30166,7 @@
       <c r="AA942" s="5"/>
       <c r="AB942" s="5"/>
     </row>
-    <row r="943" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -30140,7 +30196,7 @@
       <c r="AA943" s="5"/>
       <c r="AB943" s="5"/>
     </row>
-    <row r="944" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -30170,7 +30226,7 @@
       <c r="AA944" s="5"/>
       <c r="AB944" s="5"/>
     </row>
-    <row r="945" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -30200,7 +30256,7 @@
       <c r="AA945" s="5"/>
       <c r="AB945" s="5"/>
     </row>
-    <row r="946" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -30230,7 +30286,7 @@
       <c r="AA946" s="5"/>
       <c r="AB946" s="5"/>
     </row>
-    <row r="947" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -30260,7 +30316,7 @@
       <c r="AA947" s="5"/>
       <c r="AB947" s="5"/>
     </row>
-    <row r="948" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -30290,7 +30346,7 @@
       <c r="AA948" s="5"/>
       <c r="AB948" s="5"/>
     </row>
-    <row r="949" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -30320,7 +30376,7 @@
       <c r="AA949" s="5"/>
       <c r="AB949" s="5"/>
     </row>
-    <row r="950" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -30350,7 +30406,7 @@
       <c r="AA950" s="5"/>
       <c r="AB950" s="5"/>
     </row>
-    <row r="951" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -30380,7 +30436,7 @@
       <c r="AA951" s="5"/>
       <c r="AB951" s="5"/>
     </row>
-    <row r="952" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -30410,7 +30466,7 @@
       <c r="AA952" s="5"/>
       <c r="AB952" s="5"/>
     </row>
-    <row r="953" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -30440,7 +30496,7 @@
       <c r="AA953" s="5"/>
       <c r="AB953" s="5"/>
     </row>
-    <row r="954" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -30470,7 +30526,7 @@
       <c r="AA954" s="5"/>
       <c r="AB954" s="5"/>
     </row>
-    <row r="955" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -30500,7 +30556,7 @@
       <c r="AA955" s="5"/>
       <c r="AB955" s="5"/>
     </row>
-    <row r="956" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -30530,7 +30586,7 @@
       <c r="AA956" s="5"/>
       <c r="AB956" s="5"/>
     </row>
-    <row r="957" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -30560,7 +30616,7 @@
       <c r="AA957" s="5"/>
       <c r="AB957" s="5"/>
     </row>
-    <row r="958" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -30590,7 +30646,7 @@
       <c r="AA958" s="5"/>
       <c r="AB958" s="5"/>
     </row>
-    <row r="959" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -30620,7 +30676,7 @@
       <c r="AA959" s="5"/>
       <c r="AB959" s="5"/>
     </row>
-    <row r="960" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -30650,7 +30706,7 @@
       <c r="AA960" s="5"/>
       <c r="AB960" s="5"/>
     </row>
-    <row r="961" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -30680,7 +30736,7 @@
       <c r="AA961" s="5"/>
       <c r="AB961" s="5"/>
     </row>
-    <row r="962" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -30710,7 +30766,7 @@
       <c r="AA962" s="5"/>
       <c r="AB962" s="5"/>
     </row>
-    <row r="963" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -30740,7 +30796,7 @@
       <c r="AA963" s="5"/>
       <c r="AB963" s="5"/>
     </row>
-    <row r="964" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -30770,7 +30826,7 @@
       <c r="AA964" s="5"/>
       <c r="AB964" s="5"/>
     </row>
-    <row r="965" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -30800,7 +30856,7 @@
       <c r="AA965" s="5"/>
       <c r="AB965" s="5"/>
     </row>
-    <row r="966" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -30830,7 +30886,7 @@
       <c r="AA966" s="5"/>
       <c r="AB966" s="5"/>
     </row>
-    <row r="967" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -30860,7 +30916,7 @@
       <c r="AA967" s="5"/>
       <c r="AB967" s="5"/>
     </row>
-    <row r="968" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -30890,7 +30946,7 @@
       <c r="AA968" s="5"/>
       <c r="AB968" s="5"/>
     </row>
-    <row r="969" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -30920,7 +30976,7 @@
       <c r="AA969" s="5"/>
       <c r="AB969" s="5"/>
     </row>
-    <row r="970" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -30950,7 +31006,7 @@
       <c r="AA970" s="5"/>
       <c r="AB970" s="5"/>
     </row>
-    <row r="971" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -30980,7 +31036,7 @@
       <c r="AA971" s="5"/>
       <c r="AB971" s="5"/>
     </row>
-    <row r="972" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -31010,7 +31066,7 @@
       <c r="AA972" s="5"/>
       <c r="AB972" s="5"/>
     </row>
-    <row r="973" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -31040,7 +31096,7 @@
       <c r="AA973" s="5"/>
       <c r="AB973" s="5"/>
     </row>
-    <row r="974" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -31070,7 +31126,7 @@
       <c r="AA974" s="5"/>
       <c r="AB974" s="5"/>
     </row>
-    <row r="975" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -31100,7 +31156,7 @@
       <c r="AA975" s="5"/>
       <c r="AB975" s="5"/>
     </row>
-    <row r="976" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -31130,7 +31186,7 @@
       <c r="AA976" s="5"/>
       <c r="AB976" s="5"/>
     </row>
-    <row r="977" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -31160,7 +31216,7 @@
       <c r="AA977" s="5"/>
       <c r="AB977" s="5"/>
     </row>
-    <row r="978" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -31190,7 +31246,7 @@
       <c r="AA978" s="5"/>
       <c r="AB978" s="5"/>
     </row>
-    <row r="979" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -31220,7 +31276,7 @@
       <c r="AA979" s="5"/>
       <c r="AB979" s="5"/>
     </row>
-    <row r="980" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -31250,7 +31306,7 @@
       <c r="AA980" s="5"/>
       <c r="AB980" s="5"/>
     </row>
-    <row r="981" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -31280,7 +31336,7 @@
       <c r="AA981" s="5"/>
       <c r="AB981" s="5"/>
     </row>
-    <row r="982" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -31310,7 +31366,7 @@
       <c r="AA982" s="5"/>
       <c r="AB982" s="5"/>
     </row>
-    <row r="983" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -31340,7 +31396,7 @@
       <c r="AA983" s="5"/>
       <c r="AB983" s="5"/>
     </row>
-    <row r="984" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -31370,7 +31426,7 @@
       <c r="AA984" s="5"/>
       <c r="AB984" s="5"/>
     </row>
-    <row r="985" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -31400,7 +31456,7 @@
       <c r="AA985" s="5"/>
       <c r="AB985" s="5"/>
     </row>
-    <row r="986" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -31430,7 +31486,7 @@
       <c r="AA986" s="5"/>
       <c r="AB986" s="5"/>
     </row>
-    <row r="987" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -31460,7 +31516,7 @@
       <c r="AA987" s="5"/>
       <c r="AB987" s="5"/>
     </row>
-    <row r="988" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -31490,7 +31546,7 @@
       <c r="AA988" s="5"/>
       <c r="AB988" s="5"/>
     </row>
-    <row r="989" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -31520,7 +31576,7 @@
       <c r="AA989" s="5"/>
       <c r="AB989" s="5"/>
     </row>
-    <row r="990" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -31550,7 +31606,7 @@
       <c r="AA990" s="5"/>
       <c r="AB990" s="5"/>
     </row>
-    <row r="991" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -31580,7 +31636,7 @@
       <c r="AA991" s="5"/>
       <c r="AB991" s="5"/>
     </row>
-    <row r="992" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -31610,7 +31666,7 @@
       <c r="AA992" s="5"/>
       <c r="AB992" s="5"/>
     </row>
-    <row r="993" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -31640,7 +31696,7 @@
       <c r="AA993" s="5"/>
       <c r="AB993" s="5"/>
     </row>
-    <row r="994" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -31670,7 +31726,7 @@
       <c r="AA994" s="5"/>
       <c r="AB994" s="5"/>
     </row>
-    <row r="995" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -31700,7 +31756,7 @@
       <c r="AA995" s="5"/>
       <c r="AB995" s="5"/>
     </row>
-    <row r="996" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -31730,7 +31786,7 @@
       <c r="AA996" s="5"/>
       <c r="AB996" s="5"/>
     </row>
-    <row r="997" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -31760,7 +31816,7 @@
       <c r="AA997" s="5"/>
       <c r="AB997" s="5"/>
     </row>
-    <row r="998" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -31790,7 +31846,7 @@
       <c r="AA998" s="5"/>
       <c r="AB998" s="5"/>
     </row>
-    <row r="999" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -31820,7 +31876,7 @@
       <c r="AA999" s="5"/>
       <c r="AB999" s="5"/>
     </row>
-    <row r="1000" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
@@ -31850,7 +31906,7 @@
       <c r="AA1000" s="5"/>
       <c r="AB1000" s="5"/>
     </row>
-    <row r="1001" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1001" s="5"/>
       <c r="B1001" s="5"/>
       <c r="C1001" s="5"/>
@@ -31880,7 +31936,7 @@
       <c r="AA1001" s="5"/>
       <c r="AB1001" s="5"/>
     </row>
-    <row r="1002" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1002" s="5"/>
       <c r="B1002" s="5"/>
       <c r="C1002" s="5"/>
@@ -31910,7 +31966,7 @@
       <c r="AA1002" s="5"/>
       <c r="AB1002" s="5"/>
     </row>
-    <row r="1003" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1003" s="5"/>
       <c r="B1003" s="5"/>
       <c r="C1003" s="5"/>
@@ -31940,7 +31996,7 @@
       <c r="AA1003" s="5"/>
       <c r="AB1003" s="5"/>
     </row>
-    <row r="1004" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1004" s="5"/>
       <c r="B1004" s="5"/>
       <c r="C1004" s="5"/>
@@ -31970,7 +32026,7 @@
       <c r="AA1004" s="5"/>
       <c r="AB1004" s="5"/>
     </row>
-    <row r="1005" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1005" s="5"/>
       <c r="B1005" s="5"/>
       <c r="C1005" s="5"/>
@@ -32000,7 +32056,7 @@
       <c r="AA1005" s="5"/>
       <c r="AB1005" s="5"/>
     </row>
-    <row r="1006" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1006" s="5"/>
       <c r="B1006" s="5"/>
       <c r="C1006" s="5"/>
@@ -32030,7 +32086,7 @@
       <c r="AA1006" s="5"/>
       <c r="AB1006" s="5"/>
     </row>
-    <row r="1007" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1007" s="5"/>
       <c r="B1007" s="5"/>
       <c r="C1007" s="5"/>
